--- a/TrueAug_Cheb_WikipediaNetworkchameleon12-31-15:20:16_dir.xlsx
+++ b/TrueAug_Cheb_WikipediaNetworkchameleon12-31-15:20:16_dir.xlsx
@@ -4673,7 +4673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A275"/>
+  <dimension ref="A1:A309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4691,1916 +4691,2154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:273, Val_loss:  5.71, time: 19.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:307, Val_loss:  5.19, time: 16.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:272, Val_loss:  6.24, time: 12.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:306, Val_loss:  8.10, time: 11.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:271, Val_loss:  5.71, time: 16.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:305, Val_loss:  5.48, time: 18.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:270, Val_loss:  6.07, time: 16.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:304, Val_loss:  7.50, time: 17.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:269, Val_loss:  5.63, time: 13.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:303, Val_loss:  5.73, time: 12.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:268, Val_loss:  6.02, time: 15.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:302, Val_loss:  7.29, time: 16.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:267, Val_loss:  5.82, time: 14.43, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:301, Val_loss:  6.65, time: 13.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:266, Val_loss:  5.97, time: 18.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:300, Val_loss:  7.88, time: 13.17, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:265, Val_loss:  5.70, time: 19.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:299, Val_loss:  6.10, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:264, Val_loss:  7.13, time: 16.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:298, Val_loss:  9.19, time: 12.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:263, Val_loss:  5.66, time: 20.90, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:297, Val_loss:  7.07, time: 15.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:262, Val_loss:  6.56, time: 16.88, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:296, Val_loss:  9.29, time: 16.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:261, Val_loss:  5.59, time: 19.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:295, Val_loss:  7.80, time: 16.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:260, Val_loss:  6.62, time: 22.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:294, Val_loss:  8.76, time: 20.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:259, Val_loss:  5.69, time: 16.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:293, Val_loss:  7.46, time: 12.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:258, Val_loss:  6.32, time: 12.65, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:292, Val_loss:  7.59, time: 13.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:257, Val_loss:  6.25, time: 14.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:291, Val_loss:  6.78, time: 13.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:256, Val_loss:  7.20, time: 16.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:290, Val_loss:  6.62, time: 19.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:255, Val_loss:  5.86, time: 14.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:289, Val_loss:  6.09, time: 18.71, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:254, Val_loss:  7.24, time: 15.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:288, Val_loss:  6.88, time: 16.78, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:253, Val_loss:  6.42, time: 19.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:287, Val_loss:  6.46, time: 18.22, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:252, Val_loss:  5.96, time: 17.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:286, Val_loss:  7.04, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:251, Val_loss:  5.15, time: 18.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:285, Val_loss:  6.27, time: 17.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:250, Val_loss:  6.09, time: 17.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:284, Val_loss:  6.37, time: 18.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:249, Val_loss:  5.32, time: 13.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:283, Val_loss:  5.89, time: 18.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:248, Val_loss:  6.54, time: 20.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:282, Val_loss:  6.14, time: 15.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:247, Val_loss:  5.42, time: 20.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:281, Val_loss:  5.82, time: 16.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:246, Val_loss:  6.22, time: 22.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:280, Val_loss:  6.01, time: 12.42, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:245, Val_loss:  5.64, time: 16.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:279, Val_loss:  6.31, time: 13.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:244, Val_loss:  6.10, time: 20.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:278, Val_loss:  6.04, time: 10.95, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:243, Val_loss:  5.48, time: 15.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:277, Val_loss:  5.76, time: 10.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:242, Val_loss:  5.42, time: 19.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:276, Val_loss:  6.79, time: 12.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:241, Val_loss:  5.12, time: 21.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:275, Val_loss:  5.66, time: 20.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:240, Val_loss:  6.52, time: 21.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:274, Val_loss:  6.51, time: 15.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:239, Val_loss:  5.68, time: 19.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:273, Val_loss:  5.71, time: 19.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:238, Val_loss:  6.13, time: 23.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:272, Val_loss:  6.24, time: 12.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:237, Val_loss:  5.31, time: 21.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:271, Val_loss:  5.71, time: 16.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:236, Val_loss:  5.88, time: 19.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:270, Val_loss:  6.07, time: 16.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:235, Val_loss:  7.75, time: 17.54, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:269, Val_loss:  5.63, time: 13.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:234, Val_loss:  6.63, time: 20.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:268, Val_loss:  6.02, time: 15.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:233, Val_loss:  7.73, time: 21.81, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:267, Val_loss:  5.82, time: 14.43, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:232, Val_loss:  7.43, time: 16.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:266, Val_loss:  5.97, time: 18.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:231, Val_loss:  8.15, time: 14.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:265, Val_loss:  5.70, time: 19.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:230, Val_loss:  7.04, time: 13.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:264, Val_loss:  7.13, time: 16.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:229, Val_loss:  7.94, time: 11.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:263, Val_loss:  5.66, time: 20.90, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:228, Val_loss:  6.67, time: 13.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:262, Val_loss:  6.56, time: 16.88, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:227, Val_loss:  6.89, time: 17.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:261, Val_loss:  5.59, time: 19.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:226, Val_loss:  6.13, time: 13.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:260, Val_loss:  6.62, time: 22.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:225, Val_loss:  6.42, time: 13.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:259, Val_loss:  5.69, time: 16.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:224, Val_loss:  6.16, time: 15.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:258, Val_loss:  6.32, time: 12.65, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:223, Val_loss:  6.72, time: 15.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:257, Val_loss:  6.25, time: 14.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:222, Val_loss:  6.45, time: 13.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:256, Val_loss:  7.20, time: 16.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:221, Val_loss:  7.16, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:255, Val_loss:  5.86, time: 14.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:220, Val_loss:  6.26, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:254, Val_loss:  7.24, time: 15.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:219, Val_loss:  7.42, time: 16.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:253, Val_loss:  6.42, time: 19.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:218, Val_loss:  7.53, time: 15.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:252, Val_loss:  5.96, time: 17.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:217, Val_loss:  8.23, time: 15.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:251, Val_loss:  5.15, time: 18.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:216, Val_loss:  7.47, time: 18.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:250, Val_loss:  6.09, time: 17.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:215, Val_loss:  6.74, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:249, Val_loss:  5.32, time: 13.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:214, Val_loss:  7.49, time: 12.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:248, Val_loss:  6.54, time: 20.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:213, Val_loss:  6.01, time: 14.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:247, Val_loss:  5.42, time: 20.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:212, Val_loss:  6.81, time: 13.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:246, Val_loss:  6.22, time: 22.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:211, Val_loss:  6.49, time: 17.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:245, Val_loss:  5.64, time: 16.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:210, Val_loss:  6.94, time: 18.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:244, Val_loss:  6.10, time: 20.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:209, Val_loss:  6.77, time: 13.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:243, Val_loss:  5.48, time: 15.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:208, Val_loss:  6.60, time: 14.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:242, Val_loss:  5.42, time: 19.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:207, Val_loss:  6.54, time: 15.02, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:241, Val_loss:  5.12, time: 21.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:206, Val_loss:  6.52, time: 12.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:240, Val_loss:  6.52, time: 21.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:205, Val_loss:  6.26, time: 14.40, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:239, Val_loss:  5.68, time: 19.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:204, Val_loss:  5.75, time: 13.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:238, Val_loss:  6.13, time: 23.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:203, Val_loss:  6.20, time: 13.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:237, Val_loss:  5.31, time: 21.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:202, Val_loss:  5.99, time: 16.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:236, Val_loss:  5.88, time: 19.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:201, Val_loss:  6.69, time: 17.56, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:235, Val_loss:  7.75, time: 17.54, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:200, Val_loss:  6.71, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:234, Val_loss:  6.63, time: 20.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:199, Val_loss:  6.68, time: 17.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:233, Val_loss:  7.73, time: 21.81, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:198, Val_loss:  6.46, time: 11.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:232, Val_loss:  7.43, time: 16.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:197, Val_loss:  6.27, time: 14.80, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:231, Val_loss:  8.15, time: 14.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:196, Val_loss:  6.76, time: 18.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:230, Val_loss:  7.04, time: 13.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:195, Val_loss:  6.97, time: 11.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:229, Val_loss:  7.94, time: 11.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:194, Val_loss:  6.82, time: 18.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:228, Val_loss:  6.67, time: 13.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:193, Val_loss:  6.52, time: 15.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:227, Val_loss:  6.89, time: 17.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:192, Val_loss:  6.97, time: 14.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:226, Val_loss:  6.13, time: 13.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:191, Val_loss:  7.10, time: 15.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:225, Val_loss:  6.42, time: 13.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:190, Val_loss:  6.35, time: 15.74, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:224, Val_loss:  6.16, time: 15.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:189, Val_loss:  6.55, time: 12.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:223, Val_loss:  6.72, time: 15.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:188, Val_loss:  6.18, time: 16.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:222, Val_loss:  6.45, time: 13.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:187, Val_loss:  6.31, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:221, Val_loss:  7.16, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:186, Val_loss:  5.53, time: 17.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:220, Val_loss:  6.26, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:185, Val_loss:  6.34, time: 14.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:219, Val_loss:  7.42, time: 16.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:184, Val_loss:  5.52, time: 16.95, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:218, Val_loss:  7.53, time: 15.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:183, Val_loss:  6.26, time: 14.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:217, Val_loss:  8.23, time: 15.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:182, Val_loss:  5.45, time: 15.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:216, Val_loss:  7.47, time: 18.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:181, Val_loss:  6.17, time: 16.83, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:215, Val_loss:  6.74, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:180, Val_loss:  5.76, time: 16.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:214, Val_loss:  7.49, time: 12.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch:179, Val_loss:  6.05, time: 16.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:213, Val_loss:  6.01, time: 14.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch:178, Val_loss:  5.43, time: 15.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:212, Val_loss:  6.81, time: 13.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch:177, Val_loss:  5.81, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:211, Val_loss:  6.49, time: 17.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch:176, Val_loss:  5.46, time: 11.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:210, Val_loss:  6.94, time: 18.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch:175, Val_loss:  5.59, time: 14.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:209, Val_loss:  6.77, time: 13.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch:174, Val_loss:  5.33, time: 11.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:208, Val_loss:  6.60, time: 14.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch:173, Val_loss:  5.88, time: 16.58, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:207, Val_loss:  6.54, time: 15.02, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch:172, Val_loss:  5.43, time: 18.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:206, Val_loss:  6.52, time: 12.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch:171, Val_loss:  5.79, time: 15.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:205, Val_loss:  6.26, time: 14.40, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch:170, Val_loss:  5.02, time: 13.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:204, Val_loss:  5.75, time: 13.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:169, Val_loss:  5.77, time: 12.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:203, Val_loss:  6.20, time: 13.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:168, Val_loss:  5.18, time: 11.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:202, Val_loss:  5.99, time: 16.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:167, Val_loss:  5.19, time: 15.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:201, Val_loss:  6.69, time: 17.56, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:166, Val_loss:  4.54, time: 16.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:200, Val_loss:  6.71, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:165, Val_loss:  5.23, time: 23.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:199, Val_loss:  6.68, time: 17.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:164, Val_loss:  4.25, time: 16.06, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:198, Val_loss:  6.46, time: 11.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:163, Val_loss:  5.21, time: 17.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:197, Val_loss:  6.27, time: 14.80, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:162, Val_loss:  4.25, time: 13.43, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:196, Val_loss:  6.76, time: 18.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:161, Val_loss:  5.17, time: 15.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:195, Val_loss:  6.97, time: 11.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epoch:160, Val_loss:  4.81, time: 14.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:194, Val_loss:  6.82, time: 18.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epoch:159, Val_loss:  5.42, time: 16.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:193, Val_loss:  6.52, time: 15.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epoch:158, Val_loss:  5.19, time: 17.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:192, Val_loss:  6.97, time: 14.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epoch:157, Val_loss:  5.57, time: 15.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:191, Val_loss:  7.10, time: 15.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epoch:156, Val_loss:  5.22, time: 17.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:190, Val_loss:  6.35, time: 15.74, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epoch:155, Val_loss:  5.74, time: 17.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:189, Val_loss:  6.55, time: 12.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Epoch:154, Val_loss:  4.65, time: 16.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:188, Val_loss:  6.18, time: 16.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Epoch:153, Val_loss:  5.33, time: 13.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:187, Val_loss:  6.31, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epoch:152, Val_loss:  4.64, time: 13.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:186, Val_loss:  5.53, time: 17.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Epoch:151, Val_loss:  5.22, time: 15.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:185, Val_loss:  6.34, time: 14.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Epoch:150, Val_loss:  4.61, time: 13.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:184, Val_loss:  5.52, time: 16.95, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Epoch:149, Val_loss:  5.23, time: 13.90, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:183, Val_loss:  6.26, time: 14.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Epoch:148, Val_loss:  4.41, time: 14.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:182, Val_loss:  5.45, time: 15.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Epoch:147, Val_loss:  5.29, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:181, Val_loss:  6.17, time: 16.83, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Epoch:146, Val_loss:  4.31, time: 15.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:180, Val_loss:  5.76, time: 16.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Epoch:145, Val_loss:  5.34, time: 18.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:179, Val_loss:  6.05, time: 16.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Epoch:144, Val_loss:  4.42, time: 16.48, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:178, Val_loss:  5.43, time: 15.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Epoch:143, Val_loss:  5.71, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:177, Val_loss:  5.81, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Epoch:142, Val_loss:  4.61, time: 15.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:176, Val_loss:  5.46, time: 11.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Epoch:141, Val_loss:  5.70, time: 17.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:175, Val_loss:  5.59, time: 14.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Epoch:140, Val_loss:  4.43, time: 17.85, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:174, Val_loss:  5.33, time: 11.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Epoch:139, Val_loss:  5.79, time: 15.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:173, Val_loss:  5.88, time: 16.58, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Epoch:138, Val_loss:  4.31, time: 13.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:172, Val_loss:  5.43, time: 18.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Epoch:137, Val_loss:  5.39, time: 15.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:171, Val_loss:  5.79, time: 15.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Epoch:136, Val_loss:  4.39, time: 14.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:170, Val_loss:  5.02, time: 13.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Epoch:135, Val_loss:  5.21, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:169, Val_loss:  5.77, time: 12.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Epoch:134, Val_loss:  4.05, time: 17.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:168, Val_loss:  5.18, time: 11.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Epoch:133, Val_loss:  4.76, time: 10.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:167, Val_loss:  5.19, time: 15.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Epoch:132, Val_loss:  3.89, time: 12.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:166, Val_loss:  4.54, time: 16.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Epoch:131, Val_loss:  5.37, time: 15.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:165, Val_loss:  5.23, time: 23.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Epoch:130, Val_loss:  3.73, time: 16.41, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:164, Val_loss:  4.25, time: 16.06, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Epoch:129, Val_loss:  4.31, time: 16.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:163, Val_loss:  5.21, time: 17.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Epoch:128, Val_loss:  3.76, time: 17.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:162, Val_loss:  4.25, time: 13.43, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Epoch:127, Val_loss:  4.40, time: 14.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:161, Val_loss:  5.17, time: 15.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Epoch:126, Val_loss:  3.85, time: 16.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:160, Val_loss:  4.81, time: 14.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Epoch:125, Val_loss:  4.47, time: 18.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:159, Val_loss:  5.42, time: 16.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Epoch:124, Val_loss:  3.88, time: 14.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:158, Val_loss:  5.19, time: 17.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Epoch:123, Val_loss:  4.34, time: 14.56, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:157, Val_loss:  5.57, time: 15.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Epoch:122, Val_loss:  3.67, time: 20.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:156, Val_loss:  5.22, time: 17.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Epoch:121, Val_loss:  4.86, time: 13.78, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:155, Val_loss:  5.74, time: 17.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Epoch:120, Val_loss:  3.43, time: 16.06, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:154, Val_loss:  4.65, time: 16.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Epoch:119, Val_loss:  4.42, time: 16.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:153, Val_loss:  5.33, time: 13.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Epoch:118, Val_loss:  3.73, time: 16.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:152, Val_loss:  4.64, time: 13.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Epoch:117, Val_loss:  4.58, time: 16.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:151, Val_loss:  5.22, time: 15.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Epoch:116, Val_loss:  3.96, time: 17.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:150, Val_loss:  4.61, time: 13.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Epoch:115, Val_loss:  4.51, time: 16.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:149, Val_loss:  5.23, time: 13.90, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Epoch:114, Val_loss:  4.11, time: 16.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:148, Val_loss:  4.41, time: 14.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Epoch:113, Val_loss:  3.74, time: 13.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:147, Val_loss:  5.29, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Epoch:112, Val_loss:  3.72, time: 11.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:146, Val_loss:  4.31, time: 15.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Epoch:111, Val_loss:  4.76, time: 15.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:145, Val_loss:  5.34, time: 18.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Epoch:110, Val_loss:  3.48, time: 15.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:144, Val_loss:  4.42, time: 16.48, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Epoch:109, Val_loss:  3.99, time: 15.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:143, Val_loss:  5.71, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Epoch:108, Val_loss:  4.06, time: 18.70, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:142, Val_loss:  4.61, time: 15.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Epoch:107, Val_loss:  3.94, time: 15.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:141, Val_loss:  5.70, time: 17.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Epoch:106, Val_loss:  4.01, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:140, Val_loss:  4.43, time: 17.85, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Epoch:105, Val_loss:  3.91, time: 13.71, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:139, Val_loss:  5.79, time: 15.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Epoch:104, Val_loss:  4.01, time: 13.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:138, Val_loss:  4.31, time: 13.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Epoch:103, Val_loss:  3.92, time: 11.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:137, Val_loss:  5.39, time: 15.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Epoch:102, Val_loss:  4.06, time: 16.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:136, Val_loss:  4.39, time: 14.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Epoch:101, Val_loss:  3.95, time: 16.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:135, Val_loss:  5.21, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Epoch:100, Val_loss:  3.98, time: 15.96, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:134, Val_loss:  4.05, time: 17.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Epoch: 99, Val_loss:  3.85, time: 15.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:133, Val_loss:  4.76, time: 10.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Epoch: 98, Val_loss:  3.95, time: 15.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:132, Val_loss:  3.89, time: 12.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Epoch: 97, Val_loss:  3.86, time: 15.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:131, Val_loss:  5.37, time: 15.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Epoch: 96, Val_loss:  3.97, time: 15.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:130, Val_loss:  3.73, time: 16.41, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Epoch: 95, Val_loss:  3.84, time: 14.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:129, Val_loss:  4.31, time: 16.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Epoch: 94, Val_loss:  3.93, time: 15.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:128, Val_loss:  3.76, time: 17.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Epoch: 93, Val_loss:  3.83, time: 15.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:127, Val_loss:  4.40, time: 14.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Epoch: 92, Val_loss:  3.93, time: 16.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:126, Val_loss:  3.85, time: 16.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Epoch: 91, Val_loss:  3.81, time: 17.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:125, Val_loss:  4.47, time: 18.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Epoch: 90, Val_loss:  3.91, time: 20.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:124, Val_loss:  3.88, time: 14.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Epoch: 89, Val_loss:  3.80, time: 17.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:123, Val_loss:  4.34, time: 14.56, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Epoch: 88, Val_loss:  3.90, time: 20.75, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:122, Val_loss:  3.67, time: 20.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Epoch: 87, Val_loss:  3.77, time: 17.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:121, Val_loss:  4.86, time: 13.78, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Epoch: 86, Val_loss:  3.87, time: 12.70, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:120, Val_loss:  3.43, time: 16.06, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Epoch: 85, Val_loss:  3.77, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:119, Val_loss:  4.42, time: 16.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Epoch: 84, Val_loss:  3.85, time: 15.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:118, Val_loss:  3.73, time: 16.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Epoch: 83, Val_loss:  3.72, time: 17.54, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:117, Val_loss:  4.58, time: 16.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Epoch: 82, Val_loss:  3.87, time: 11.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:116, Val_loss:  3.96, time: 17.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Epoch: 81, Val_loss:  3.72, time: 13.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:115, Val_loss:  4.51, time: 16.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Epoch: 80, Val_loss:  3.83, time: 17.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:114, Val_loss:  4.11, time: 16.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Epoch: 79, Val_loss:  3.75, time: 13.97, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:113, Val_loss:  3.74, time: 13.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Epoch: 78, Val_loss:  3.82, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:112, Val_loss:  3.72, time: 11.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Epoch: 77, Val_loss:  3.71, time: 12.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:111, Val_loss:  4.76, time: 15.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Epoch: 76, Val_loss:  3.79, time: 15.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:110, Val_loss:  3.48, time: 15.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Epoch: 75, Val_loss:  3.67, time: 13.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:109, Val_loss:  3.99, time: 15.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Epoch: 74, Val_loss:  3.73, time: 14.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:108, Val_loss:  4.06, time: 18.70, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Epoch: 73, Val_loss:  3.69, time: 12.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:107, Val_loss:  3.94, time: 15.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Epoch: 72, Val_loss:  3.70, time: 16.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:106, Val_loss:  4.01, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Epoch: 71, Val_loss:  3.64, time: 19.42, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:105, Val_loss:  3.91, time: 13.71, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Epoch: 70, Val_loss:  3.72, time: 13.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:104, Val_loss:  4.01, time: 13.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Epoch: 69, Val_loss:  3.59, time: 10.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:103, Val_loss:  3.92, time: 11.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Epoch: 68, Val_loss:  3.64, time: 12.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:102, Val_loss:  4.06, time: 16.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Epoch: 67, Val_loss:  3.61, time: 14.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:101, Val_loss:  3.95, time: 16.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Epoch: 66, Val_loss:  3.63, time: 19.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:100, Val_loss:  3.98, time: 15.96, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Epoch: 65, Val_loss:  3.50, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 99, Val_loss:  3.85, time: 15.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Epoch: 64, Val_loss:  3.58, time: 12.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 98, Val_loss:  3.95, time: 15.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Epoch: 63, Val_loss:  3.52, time: 14.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 97, Val_loss:  3.86, time: 15.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Epoch: 62, Val_loss:  3.56, time: 13.17, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 96, Val_loss:  3.97, time: 15.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Epoch: 61, Val_loss:  3.44, time: 15.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 95, Val_loss:  3.84, time: 14.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Epoch: 60, Val_loss:  3.53, time: 17.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 94, Val_loss:  3.93, time: 15.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Epoch: 59, Val_loss:  3.42, time: 17.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 93, Val_loss:  3.83, time: 15.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Epoch: 58, Val_loss:  3.54, time: 17.98, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 92, Val_loss:  3.93, time: 16.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Epoch: 57, Val_loss:  3.38, time: 15.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 91, Val_loss:  3.81, time: 17.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Epoch: 56, Val_loss:  3.46, time: 12.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 90, Val_loss:  3.91, time: 20.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Epoch: 55, Val_loss:  3.36, time: 17.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 89, Val_loss:  3.80, time: 17.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Epoch: 54, Val_loss:  3.45, time: 14.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 88, Val_loss:  3.90, time: 20.75, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Epoch: 53, Val_loss:  3.35, time: 17.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 87, Val_loss:  3.77, time: 17.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Epoch: 52, Val_loss:  3.45, time: 18.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 86, Val_loss:  3.87, time: 12.70, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Epoch: 51, Val_loss:  3.32, time: 16.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 85, Val_loss:  3.77, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Epoch: 50, Val_loss:  3.31, time: 11.67, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 84, Val_loss:  3.85, time: 15.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Epoch: 49, Val_loss:  3.24, time: 21.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 83, Val_loss:  3.72, time: 17.54, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Epoch: 48, Val_loss:  3.30, time: 17.27, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 82, Val_loss:  3.87, time: 11.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Epoch: 47, Val_loss:  3.21, time: 16.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 81, Val_loss:  3.72, time: 13.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Epoch: 46, Val_loss:  3.22, time: 14.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 80, Val_loss:  3.83, time: 17.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Epoch: 45, Val_loss:  3.14, time: 15.23, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 79, Val_loss:  3.75, time: 13.97, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Epoch: 44, Val_loss:  3.22, time: 11.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 78, Val_loss:  3.82, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Epoch: 43, Val_loss:  3.11, time: 13.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 77, Val_loss:  3.71, time: 12.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Epoch: 42, Val_loss:  3.14, time: 12.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 76, Val_loss:  3.79, time: 15.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Epoch: 41, Val_loss:  3.04, time: 15.22, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 75, Val_loss:  3.67, time: 13.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Epoch: 40, Val_loss:  3.11, time: 17.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 74, Val_loss:  3.73, time: 14.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Epoch: 39, Val_loss:  2.97, time: 13.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 73, Val_loss:  3.69, time: 12.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Epoch: 38, Val_loss:  3.08, time: 13.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 72, Val_loss:  3.70, time: 16.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Epoch: 37, Val_loss:  2.93, time: 13.40, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 71, Val_loss:  3.64, time: 19.42, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Epoch: 36, Val_loss:  2.96, time: 12.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 70, Val_loss:  3.72, time: 13.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Epoch: 35, Val_loss:  2.90, time: 13.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 69, Val_loss:  3.59, time: 10.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Epoch: 34, Val_loss:  2.89, time: 12.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 68, Val_loss:  3.64, time: 12.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Epoch: 33, Val_loss:  2.83, time: 15.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 67, Val_loss:  3.61, time: 14.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Epoch: 32, Val_loss:  2.82, time: 18.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 66, Val_loss:  3.63, time: 19.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Epoch: 31, Val_loss:  2.79, time: 16.81, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 65, Val_loss:  3.50, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Epoch: 30, Val_loss:  2.76, time: 14.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 64, Val_loss:  3.58, time: 12.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Epoch: 29, Val_loss:  2.76, time: 11.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 63, Val_loss:  3.52, time: 14.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Epoch: 28, Val_loss:  2.70, time: 11.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 62, Val_loss:  3.56, time: 13.17, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Epoch: 27, Val_loss:  2.71, time: 17.96, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 61, Val_loss:  3.44, time: 15.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Epoch: 26, Val_loss:  2.61, time: 20.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 60, Val_loss:  3.53, time: 17.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Epoch: 25, Val_loss:  2.65, time: 17.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 59, Val_loss:  3.42, time: 17.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Epoch: 24, Val_loss:  2.61, time: 17.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 58, Val_loss:  3.54, time: 17.98, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Epoch: 23, Val_loss:  2.58, time: 15.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 57, Val_loss:  3.38, time: 15.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Epoch: 22, Val_loss:  2.53, time: 13.85, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 56, Val_loss:  3.46, time: 12.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Epoch: 21, Val_loss:  2.56, time: 16.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 55, Val_loss:  3.36, time: 17.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Epoch: 20, Val_loss:  2.50, time: 15.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 54, Val_loss:  3.45, time: 14.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Epoch: 19, Val_loss:  2.49, time: 15.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 53, Val_loss:  3.35, time: 17.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Epoch: 18, Val_loss:  2.48, time: 16.89, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 52, Val_loss:  3.45, time: 18.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Epoch: 17, Val_loss:  2.47, time: 15.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 51, Val_loss:  3.32, time: 16.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Epoch: 16, Val_loss:  2.46, time: 12.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 50, Val_loss:  3.31, time: 11.67, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Epoch: 15, Val_loss:  2.46, time: 14.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 49, Val_loss:  3.24, time: 21.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Epoch: 14, Val_loss:  2.42, time: 12.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 48, Val_loss:  3.30, time: 17.27, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Epoch: 13, Val_loss:  2.39, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 47, Val_loss:  3.21, time: 16.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Epoch: 12, Val_loss:  2.39, time: 12.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 46, Val_loss:  3.22, time: 14.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Epoch: 11, Val_loss:  2.36, time: 16.99, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+          <t>Epoch: 45, Val_loss:  3.14, time: 15.23, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Epoch: 10, Val_loss:  2.33, time: 17.68, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+          <t>Epoch: 44, Val_loss:  3.22, time: 11.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Epoch:  9, Val_loss:  2.30, time: 20.13, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+          <t>Epoch: 43, Val_loss:  3.11, time: 13.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Epoch:  8, Val_loss:  2.28, time: 15.31, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+          <t>Epoch: 42, Val_loss:  3.14, time: 12.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Epoch:  7, Val_loss:  2.26, time: 10.09, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+          <t>Epoch: 41, Val_loss:  3.04, time: 15.22, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Epoch:  6, Val_loss:  2.24, time: 16.02, test_Acc:  38.16, test_bacc:  37.33, test_f1:  28.96</t>
+          <t>Epoch: 40, Val_loss:  3.11, time: 17.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Epoch:  5, Val_loss:  2.27, time: 30.27, test_Acc:  37.06, test_bacc:  36.13, test_f1:  26.94</t>
+          <t>Epoch: 39, Val_loss:  2.97, time: 13.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Epoch:  4, Val_loss:  2.32, time: 23.15, test_Acc:  37.06, test_bacc:  36.13, test_f1:  26.94</t>
+          <t>Epoch: 38, Val_loss:  3.08, time: 13.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  2.37, time: 26.81, test_Acc:  37.06, test_bacc:  36.04, test_f1:  26.15</t>
+          <t>Epoch: 37, Val_loss:  2.93, time: 13.40, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  2.43, time: 25.32, test_Acc:  37.94, test_bacc:  36.73, test_f1:  26.42</t>
+          <t>Epoch: 36, Val_loss:  2.96, time: 12.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  2.49, time: 26.42, test_Acc:  37.94, test_bacc:  36.73, test_f1:  26.42</t>
+          <t>Epoch: 35, Val_loss:  2.90, time: 13.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch: 34, Val_loss:  2.89, time: 12.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch: 33, Val_loss:  2.83, time: 15.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch: 32, Val_loss:  2.82, time: 18.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch: 31, Val_loss:  2.79, time: 16.81, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch: 30, Val_loss:  2.76, time: 14.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch: 29, Val_loss:  2.76, time: 11.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch: 28, Val_loss:  2.70, time: 11.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch: 27, Val_loss:  2.71, time: 17.96, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch: 26, Val_loss:  2.61, time: 20.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch: 25, Val_loss:  2.65, time: 17.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch: 24, Val_loss:  2.61, time: 17.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch: 23, Val_loss:  2.58, time: 15.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch: 22, Val_loss:  2.53, time: 13.85, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch: 21, Val_loss:  2.56, time: 16.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch: 20, Val_loss:  2.50, time: 15.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch: 19, Val_loss:  2.49, time: 15.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch: 18, Val_loss:  2.48, time: 16.89, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch: 17, Val_loss:  2.47, time: 15.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch: 16, Val_loss:  2.46, time: 12.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch: 15, Val_loss:  2.46, time: 14.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch: 14, Val_loss:  2.42, time: 12.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch: 13, Val_loss:  2.39, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch: 12, Val_loss:  2.39, time: 12.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch: 11, Val_loss:  2.36, time: 16.99, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch: 10, Val_loss:  2.33, time: 17.68, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch:  9, Val_loss:  2.30, time: 20.13, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch:  8, Val_loss:  2.28, time: 15.31, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch:  7, Val_loss:  2.26, time: 10.09, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch:  6, Val_loss:  2.24, time: 16.02, test_Acc:  38.16, test_bacc:  37.33, test_f1:  28.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch:  5, Val_loss:  2.27, time: 30.27, test_Acc:  37.06, test_bacc:  36.13, test_f1:  26.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch:  4, Val_loss:  2.32, time: 23.15, test_Acc:  37.06, test_bacc:  36.13, test_f1:  26.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch:  3, Val_loss:  2.37, time: 26.81, test_Acc:  37.06, test_bacc:  36.04, test_f1:  26.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  2.43, time: 25.32, test_Acc:  37.94, test_bacc:  36.73, test_f1:  26.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.49, time: 26.42, test_Acc:  37.94, test_bacc:  36.73, test_f1:  26.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  2.55, time: 26.51, test_Acc:  37.94, test_bacc:  36.68, test_f1:  26.13</t>
         </is>

--- a/TrueAug_Cheb_WikipediaNetworkchameleon12-31-15:20:16_dir.xlsx
+++ b/TrueAug_Cheb_WikipediaNetworkchameleon12-31-15:20:16_dir.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Args" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Epoch0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Split" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Epoch1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Epoch1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Split" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Epoch2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4640,7 +4641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4651,14 +4652,3556 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Split_Output</t>
+          <t>Epoch_Output</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>split:   0, val_loss:   3.86, test_Acc:  35.53, test_bacc:  34.59, test_f1:  24.67</t>
+          <t>Epoch:506, Val_loss:  6.11, time: 18.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Epoch:505, Val_loss: 10.75, time: 19.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Epoch:504, Val_loss:  6.33, time: 19.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Epoch:503, Val_loss:  9.08, time: 19.02, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:502, Val_loss:  7.37, time: 22.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:501, Val_loss:  7.35, time: 16.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:500, Val_loss:  8.19, time: 15.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:499, Val_loss:  5.40, time: 15.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:498, Val_loss: 10.68, time: 20.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:497, Val_loss:  5.22, time: 20.93, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epoch:496, Val_loss:  9.95, time: 23.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Epoch:495, Val_loss:  4.98, time: 20.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:494, Val_loss:  9.42, time: 23.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:493, Val_loss:  4.86, time: 20.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:492, Val_loss:  8.00, time: 15.97, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:491, Val_loss:  7.92, time: 16.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:490, Val_loss:  5.43, time: 18.83, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:489, Val_loss:  9.85, time: 18.83, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:488, Val_loss:  5.85, time: 15.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epoch:487, Val_loss:  9.37, time: 24.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:486, Val_loss:  7.22, time: 16.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:485, Val_loss:  7.93, time: 19.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:484, Val_loss:  7.47, time: 22.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:483, Val_loss:  6.58, time: 23.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:482, Val_loss:  6.87, time: 27.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:481, Val_loss:  7.19, time: 27.46, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:480, Val_loss:  6.09, time: 17.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:479, Val_loss:  7.17, time: 25.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:478, Val_loss:  5.16, time: 22.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:477, Val_loss:  8.59, time: 25.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:476, Val_loss:  4.50, time: 18.17, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:475, Val_loss:  9.31, time: 22.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:474, Val_loss:  4.41, time: 23.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:473, Val_loss:  9.13, time: 15.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:472, Val_loss:  4.71, time: 24.90, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:471, Val_loss:  8.18, time: 22.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:470, Val_loss:  5.07, time: 21.67, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epoch:469, Val_loss:  8.16, time: 22.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epoch:468, Val_loss:  5.59, time: 25.80, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epoch:467, Val_loss:  8.96, time: 19.65, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epoch:466, Val_loss:  4.43, time: 21.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Epoch:465, Val_loss:  8.99, time: 19.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Epoch:464, Val_loss:  4.88, time: 16.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Epoch:463, Val_loss:  8.93, time: 24.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Epoch:462, Val_loss:  4.75, time: 19.85, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Epoch:461, Val_loss:  9.45, time: 15.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epoch:460, Val_loss:  5.75, time: 15.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Epoch:459, Val_loss:  6.14, time: 20.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Epoch:458, Val_loss:  4.35, time: 16.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Epoch:457, Val_loss:  7.72, time: 20.27, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Epoch:456, Val_loss:  4.94, time: 21.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Epoch:455, Val_loss:  6.95, time: 20.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Epoch:454, Val_loss:  6.56, time: 22.52, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:453, Val_loss:  5.24, time: 18.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:452, Val_loss:  7.84, time: 19.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:451, Val_loss:  5.39, time: 21.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:450, Val_loss:  7.88, time: 20.93, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:449, Val_loss:  5.19, time: 20.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:448, Val_loss:  9.32, time: 23.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:447, Val_loss:  5.14, time: 19.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:446, Val_loss:  8.74, time: 20.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:445, Val_loss:  5.47, time: 17.02, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:444, Val_loss:  8.26, time: 15.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:443, Val_loss:  5.13, time: 20.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:442, Val_loss:  8.69, time: 18.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:441, Val_loss:  5.47, time: 20.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:440, Val_loss:  8.69, time: 24.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:439, Val_loss:  5.26, time: 25.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:438, Val_loss:  9.25, time: 21.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:437, Val_loss:  5.73, time: 19.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:436, Val_loss:  9.98, time: 22.95, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:435, Val_loss:  5.28, time: 22.67, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:434, Val_loss:  8.46, time: 23.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:433, Val_loss:  5.75, time: 26.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:432, Val_loss:  9.91, time: 18.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:431, Val_loss:  5.83, time: 18.48, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:430, Val_loss: 10.28, time: 23.90, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:429, Val_loss:  5.59, time: 26.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:428, Val_loss: 10.03, time: 23.67, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:427, Val_loss:  6.53, time: 22.52, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epoch:426, Val_loss:  8.70, time: 21.70, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Epoch:425, Val_loss:  7.71, time: 18.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Epoch:424, Val_loss:  9.15, time: 18.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Epoch:423, Val_loss:  5.95, time: 22.23, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Epoch:422, Val_loss: 10.88, time: 16.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Epoch:421, Val_loss:  6.20, time: 19.10, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Epoch:420, Val_loss: 11.20, time: 22.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Epoch:419, Val_loss:  6.53, time: 17.58, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:418, Val_loss: 10.32, time: 22.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:417, Val_loss:  8.09, time: 23.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:416, Val_loss:  9.09, time: 22.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:415, Val_loss:  6.42, time: 20.23, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:414, Val_loss: 10.51, time: 18.41, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:413, Val_loss:  6.39, time: 22.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:412, Val_loss: 10.54, time: 20.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:411, Val_loss:  6.53, time: 19.75, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:410, Val_loss:  9.93, time: 19.42, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:409, Val_loss:  7.44, time: 21.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:408, Val_loss:  8.78, time: 16.46, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:407, Val_loss:  6.27, time: 16.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:406, Val_loss:  9.52, time: 17.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:405, Val_loss:  9.92, time: 15.85, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:404, Val_loss:  7.43, time: 20.81, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:403, Val_loss:  9.53, time: 21.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:402, Val_loss:  8.44, time: 21.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:401, Val_loss:  8.46, time: 19.71, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:400, Val_loss:  8.10, time: 18.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:399, Val_loss: 11.01, time: 20.56, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:398, Val_loss:  8.00, time: 21.19, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:397, Val_loss: 12.24, time: 18.22, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:396, Val_loss:  8.70, time: 18.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:395, Val_loss:  9.23, time: 21.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:394, Val_loss:  7.49, time: 23.02, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:393, Val_loss:  9.42, time: 19.58, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:392, Val_loss:  7.07, time: 18.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:391, Val_loss: 11.13, time: 14.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:390, Val_loss:  7.01, time: 20.70, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:389, Val_loss:  9.17, time: 22.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:388, Val_loss:  8.77, time: 22.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:387, Val_loss:  8.80, time: 22.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:386, Val_loss:  9.35, time: 18.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:385, Val_loss:  6.34, time: 21.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:384, Val_loss:  9.85, time: 22.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:383, Val_loss:  7.02, time: 23.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:382, Val_loss:  9.41, time: 22.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:381, Val_loss:  6.35, time: 17.58, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:380, Val_loss:  9.65, time: 19.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:379, Val_loss:  6.56, time: 19.93, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:378, Val_loss:  9.31, time: 18.89, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:377, Val_loss:  6.45, time: 15.93, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:376, Val_loss:  9.25, time: 17.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:375, Val_loss:  6.81, time: 19.75, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:374, Val_loss:  9.07, time: 21.22, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:373, Val_loss:  6.95, time: 22.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:372, Val_loss:  9.47, time: 20.46, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:371, Val_loss:  6.60, time: 20.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:370, Val_loss:  8.72, time: 16.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:369, Val_loss:  6.44, time: 21.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:368, Val_loss:  9.70, time: 16.88, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:367, Val_loss:  5.88, time: 16.95, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:366, Val_loss: 10.42, time: 15.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:365, Val_loss:  5.92, time: 16.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:364, Val_loss:  9.26, time: 15.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:363, Val_loss:  6.83, time: 17.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:362, Val_loss:  9.24, time: 18.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:361, Val_loss:  6.76, time: 17.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:360, Val_loss:  9.36, time: 18.46, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:359, Val_loss:  6.25, time: 16.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:358, Val_loss:  9.98, time: 17.96, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:357, Val_loss:  5.96, time: 15.10, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:356, Val_loss: 10.14, time: 12.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:355, Val_loss:  5.85, time: 14.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:354, Val_loss:  9.99, time: 19.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:353, Val_loss:  5.79, time: 15.98, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:352, Val_loss:  9.00, time: 17.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:351, Val_loss:  6.89, time: 18.67, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:350, Val_loss:  6.16, time: 19.88, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:349, Val_loss:  9.57, time: 18.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:348, Val_loss:  5.85, time: 15.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:347, Val_loss:  9.48, time: 13.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:346, Val_loss:  5.54, time: 13.74, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:345, Val_loss:  8.27, time: 19.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:344, Val_loss:  6.08, time: 13.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:343, Val_loss:  7.88, time: 17.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:342, Val_loss:  7.02, time: 16.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:341, Val_loss:  7.02, time: 20.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:340, Val_loss:  7.81, time: 18.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:339, Val_loss:  6.36, time: 16.54, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:338, Val_loss:  8.76, time: 16.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:337, Val_loss:  7.57, time: 12.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:336, Val_loss:  6.72, time: 12.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:335, Val_loss: 10.70, time: 14.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:334, Val_loss:  6.46, time: 14.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:333, Val_loss: 10.30, time: 13.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:332, Val_loss:  6.81, time: 16.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:331, Val_loss: 11.28, time: 12.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:330, Val_loss:  7.85, time: 15.96, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:329, Val_loss:  6.48, time: 12.80, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:328, Val_loss:  8.66, time: 13.23, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:327, Val_loss:  6.01, time: 12.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:326, Val_loss:  8.60, time: 15.80, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:325, Val_loss:  6.48, time: 13.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:324, Val_loss:  9.37, time: 18.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:323, Val_loss:  6.59, time: 16.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:322, Val_loss:  8.96, time: 17.67, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:321, Val_loss:  6.45, time: 14.97, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:320, Val_loss:  8.21, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:319, Val_loss:  5.29, time: 17.54, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:318, Val_loss:  8.72, time: 15.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:317, Val_loss:  5.59, time: 19.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:316, Val_loss:  8.18, time: 20.10, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:315, Val_loss:  5.83, time: 11.97, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:314, Val_loss:  8.19, time: 16.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:313, Val_loss:  5.48, time: 12.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Epoch:312, Val_loss:  8.46, time: 14.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Epoch:311, Val_loss:  5.56, time: 14.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Epoch:310, Val_loss:  8.16, time: 16.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Epoch:309, Val_loss:  4.75, time: 13.48, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Epoch:308, Val_loss:  8.21, time: 13.17, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Epoch:307, Val_loss:  5.19, time: 16.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Epoch:306, Val_loss:  8.10, time: 11.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Epoch:305, Val_loss:  5.48, time: 18.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Epoch:304, Val_loss:  7.50, time: 17.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Epoch:303, Val_loss:  5.73, time: 12.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Epoch:302, Val_loss:  7.29, time: 16.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Epoch:301, Val_loss:  6.65, time: 13.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Epoch:300, Val_loss:  7.88, time: 13.17, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Epoch:299, Val_loss:  6.10, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Epoch:298, Val_loss:  9.19, time: 12.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Epoch:297, Val_loss:  7.07, time: 15.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Epoch:296, Val_loss:  9.29, time: 16.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Epoch:295, Val_loss:  7.80, time: 16.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Epoch:294, Val_loss:  8.76, time: 20.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Epoch:293, Val_loss:  7.46, time: 12.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Epoch:292, Val_loss:  7.59, time: 13.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Epoch:291, Val_loss:  6.78, time: 13.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Epoch:290, Val_loss:  6.62, time: 19.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Epoch:289, Val_loss:  6.09, time: 18.71, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epoch:288, Val_loss:  6.88, time: 16.78, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epoch:287, Val_loss:  6.46, time: 18.22, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Epoch:286, Val_loss:  7.04, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Epoch:285, Val_loss:  6.27, time: 17.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Epoch:284, Val_loss:  6.37, time: 18.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Epoch:283, Val_loss:  5.89, time: 18.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Epoch:282, Val_loss:  6.14, time: 15.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Epoch:281, Val_loss:  5.82, time: 16.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Epoch:280, Val_loss:  6.01, time: 12.42, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Epoch:279, Val_loss:  6.31, time: 13.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Epoch:278, Val_loss:  6.04, time: 10.95, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Epoch:277, Val_loss:  5.76, time: 10.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Epoch:276, Val_loss:  6.79, time: 12.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Epoch:275, Val_loss:  5.66, time: 20.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Epoch:274, Val_loss:  6.51, time: 15.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Epoch:273, Val_loss:  5.71, time: 19.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Epoch:272, Val_loss:  6.24, time: 12.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Epoch:271, Val_loss:  5.71, time: 16.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Epoch:270, Val_loss:  6.07, time: 16.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Epoch:269, Val_loss:  5.63, time: 13.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Epoch:268, Val_loss:  6.02, time: 15.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epoch:267, Val_loss:  5.82, time: 14.43, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epoch:266, Val_loss:  5.97, time: 18.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Epoch:265, Val_loss:  5.70, time: 19.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Epoch:264, Val_loss:  7.13, time: 16.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epoch:263, Val_loss:  5.66, time: 20.90, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epoch:262, Val_loss:  6.56, time: 16.88, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Epoch:261, Val_loss:  5.59, time: 19.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Epoch:260, Val_loss:  6.62, time: 22.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epoch:259, Val_loss:  5.69, time: 16.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epoch:258, Val_loss:  6.32, time: 12.65, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Epoch:257, Val_loss:  6.25, time: 14.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Epoch:256, Val_loss:  7.20, time: 16.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epoch:255, Val_loss:  5.86, time: 14.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epoch:254, Val_loss:  7.24, time: 15.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Epoch:253, Val_loss:  6.42, time: 19.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Epoch:252, Val_loss:  5.96, time: 17.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epoch:251, Val_loss:  5.15, time: 18.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epoch:250, Val_loss:  6.09, time: 17.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Epoch:249, Val_loss:  5.32, time: 13.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Epoch:248, Val_loss:  6.54, time: 20.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epoch:247, Val_loss:  5.42, time: 20.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epoch:246, Val_loss:  6.22, time: 22.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Epoch:245, Val_loss:  5.64, time: 16.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Epoch:244, Val_loss:  6.10, time: 20.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epoch:243, Val_loss:  5.48, time: 15.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epoch:242, Val_loss:  5.42, time: 19.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Epoch:241, Val_loss:  5.12, time: 21.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Epoch:240, Val_loss:  6.52, time: 21.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epoch:239, Val_loss:  5.68, time: 19.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epoch:238, Val_loss:  6.13, time: 23.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Epoch:237, Val_loss:  5.31, time: 21.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Epoch:236, Val_loss:  5.88, time: 19.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epoch:235, Val_loss:  7.75, time: 17.54, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epoch:234, Val_loss:  6.63, time: 20.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch:233, Val_loss:  7.73, time: 21.81, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch:232, Val_loss:  7.43, time: 16.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch:231, Val_loss:  8.15, time: 14.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch:230, Val_loss:  7.04, time: 13.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch:229, Val_loss:  7.94, time: 11.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch:228, Val_loss:  6.67, time: 13.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch:227, Val_loss:  6.89, time: 17.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch:226, Val_loss:  6.13, time: 13.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch:225, Val_loss:  6.42, time: 13.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch:224, Val_loss:  6.16, time: 15.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch:223, Val_loss:  6.72, time: 15.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch:222, Val_loss:  6.45, time: 13.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch:221, Val_loss:  7.16, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch:220, Val_loss:  6.26, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch:219, Val_loss:  7.42, time: 16.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch:218, Val_loss:  7.53, time: 15.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch:217, Val_loss:  8.23, time: 15.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch:216, Val_loss:  7.47, time: 18.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch:215, Val_loss:  6.74, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch:214, Val_loss:  7.49, time: 12.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch:213, Val_loss:  6.01, time: 14.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch:212, Val_loss:  6.81, time: 13.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch:211, Val_loss:  6.49, time: 17.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch:210, Val_loss:  6.94, time: 18.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch:209, Val_loss:  6.77, time: 13.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch:208, Val_loss:  6.60, time: 14.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch:207, Val_loss:  6.54, time: 15.02, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch:206, Val_loss:  6.52, time: 12.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch:205, Val_loss:  6.26, time: 14.40, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch:204, Val_loss:  5.75, time: 13.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch:203, Val_loss:  6.20, time: 13.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch:202, Val_loss:  5.99, time: 16.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch:201, Val_loss:  6.69, time: 17.56, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch:200, Val_loss:  6.71, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Epoch:199, Val_loss:  6.68, time: 17.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Epoch:198, Val_loss:  6.46, time: 11.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Epoch:197, Val_loss:  6.27, time: 14.80, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Epoch:196, Val_loss:  6.76, time: 18.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Epoch:195, Val_loss:  6.97, time: 11.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Epoch:194, Val_loss:  6.82, time: 18.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Epoch:193, Val_loss:  6.52, time: 15.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Epoch:192, Val_loss:  6.97, time: 14.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epoch:191, Val_loss:  7.10, time: 15.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epoch:190, Val_loss:  6.35, time: 15.74, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Epoch:189, Val_loss:  6.55, time: 12.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Epoch:188, Val_loss:  6.18, time: 16.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epoch:187, Val_loss:  6.31, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epoch:186, Val_loss:  5.53, time: 17.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Epoch:185, Val_loss:  6.34, time: 14.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Epoch:184, Val_loss:  5.52, time: 16.95, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epoch:183, Val_loss:  6.26, time: 14.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epoch:182, Val_loss:  5.45, time: 15.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Epoch:181, Val_loss:  6.17, time: 16.83, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Epoch:180, Val_loss:  5.76, time: 16.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch:179, Val_loss:  6.05, time: 16.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch:178, Val_loss:  5.43, time: 15.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch:177, Val_loss:  5.81, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch:176, Val_loss:  5.46, time: 11.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch:175, Val_loss:  5.59, time: 14.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch:174, Val_loss:  5.33, time: 11.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch:173, Val_loss:  5.88, time: 16.58, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch:172, Val_loss:  5.43, time: 18.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch:171, Val_loss:  5.79, time: 15.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch:170, Val_loss:  5.02, time: 13.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch:169, Val_loss:  5.77, time: 12.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch:168, Val_loss:  5.18, time: 11.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch:167, Val_loss:  5.19, time: 15.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch:166, Val_loss:  4.54, time: 16.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch:165, Val_loss:  5.23, time: 23.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch:164, Val_loss:  4.25, time: 16.06, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch:163, Val_loss:  5.21, time: 17.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch:162, Val_loss:  4.25, time: 13.43, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch:161, Val_loss:  5.17, time: 15.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch:160, Val_loss:  4.81, time: 14.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch:159, Val_loss:  5.42, time: 16.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch:158, Val_loss:  5.19, time: 17.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch:157, Val_loss:  5.57, time: 15.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch:156, Val_loss:  5.22, time: 17.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch:155, Val_loss:  5.74, time: 17.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch:154, Val_loss:  4.65, time: 16.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch:153, Val_loss:  5.33, time: 13.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch:152, Val_loss:  4.64, time: 13.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch:151, Val_loss:  5.22, time: 15.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch:150, Val_loss:  4.61, time: 13.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch:149, Val_loss:  5.23, time: 13.90, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch:148, Val_loss:  4.41, time: 14.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch:147, Val_loss:  5.29, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch:146, Val_loss:  4.31, time: 15.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch:145, Val_loss:  5.34, time: 18.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch:144, Val_loss:  4.42, time: 16.48, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch:143, Val_loss:  5.71, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch:142, Val_loss:  4.61, time: 15.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch:141, Val_loss:  5.70, time: 17.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch:140, Val_loss:  4.43, time: 17.85, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch:139, Val_loss:  5.79, time: 15.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch:138, Val_loss:  4.31, time: 13.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch:137, Val_loss:  5.39, time: 15.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch:136, Val_loss:  4.39, time: 14.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Epoch:135, Val_loss:  5.21, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Epoch:134, Val_loss:  4.05, time: 17.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Epoch:133, Val_loss:  4.76, time: 10.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Epoch:132, Val_loss:  3.89, time: 12.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Epoch:131, Val_loss:  5.37, time: 15.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Epoch:130, Val_loss:  3.73, time: 16.41, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Epoch:129, Val_loss:  4.31, time: 16.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Epoch:128, Val_loss:  3.76, time: 17.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Epoch:127, Val_loss:  4.40, time: 14.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Epoch:126, Val_loss:  3.85, time: 16.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Epoch:125, Val_loss:  4.47, time: 18.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Epoch:124, Val_loss:  3.88, time: 14.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Epoch:123, Val_loss:  4.34, time: 14.56, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Epoch:122, Val_loss:  3.67, time: 20.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Epoch:121, Val_loss:  4.86, time: 13.78, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Epoch:120, Val_loss:  3.43, time: 16.06, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Epoch:119, Val_loss:  4.42, time: 16.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Epoch:118, Val_loss:  3.73, time: 16.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Epoch:117, Val_loss:  4.58, time: 16.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Epoch:116, Val_loss:  3.96, time: 17.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Epoch:115, Val_loss:  4.51, time: 16.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Epoch:114, Val_loss:  4.11, time: 16.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Epoch:113, Val_loss:  3.74, time: 13.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Epoch:112, Val_loss:  3.72, time: 11.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Epoch:111, Val_loss:  4.76, time: 15.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Epoch:110, Val_loss:  3.48, time: 15.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Epoch:109, Val_loss:  3.99, time: 15.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Epoch:108, Val_loss:  4.06, time: 18.70, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Epoch:107, Val_loss:  3.94, time: 15.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Epoch:106, Val_loss:  4.01, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Epoch:105, Val_loss:  3.91, time: 13.71, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Epoch:104, Val_loss:  4.01, time: 13.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Epoch:103, Val_loss:  3.92, time: 11.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Epoch:102, Val_loss:  4.06, time: 16.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Epoch:101, Val_loss:  3.95, time: 16.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Epoch:100, Val_loss:  3.98, time: 15.96, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Epoch: 99, Val_loss:  3.85, time: 15.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Epoch: 98, Val_loss:  3.95, time: 15.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Epoch: 97, Val_loss:  3.86, time: 15.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Epoch: 96, Val_loss:  3.97, time: 15.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Epoch: 95, Val_loss:  3.84, time: 14.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Epoch: 94, Val_loss:  3.93, time: 15.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Epoch: 93, Val_loss:  3.83, time: 15.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Epoch: 92, Val_loss:  3.93, time: 16.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Epoch: 91, Val_loss:  3.81, time: 17.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Epoch: 90, Val_loss:  3.91, time: 20.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Epoch: 89, Val_loss:  3.80, time: 17.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Epoch: 88, Val_loss:  3.90, time: 20.75, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Epoch: 87, Val_loss:  3.77, time: 17.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Epoch: 86, Val_loss:  3.87, time: 12.70, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Epoch: 85, Val_loss:  3.77, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Epoch: 84, Val_loss:  3.85, time: 15.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Epoch: 83, Val_loss:  3.72, time: 17.54, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Epoch: 82, Val_loss:  3.87, time: 11.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Epoch: 81, Val_loss:  3.72, time: 13.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Epoch: 80, Val_loss:  3.83, time: 17.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Epoch: 79, Val_loss:  3.75, time: 13.97, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Epoch: 78, Val_loss:  3.82, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Epoch: 77, Val_loss:  3.71, time: 12.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Epoch: 76, Val_loss:  3.79, time: 15.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Epoch: 75, Val_loss:  3.67, time: 13.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Epoch: 74, Val_loss:  3.73, time: 14.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Epoch: 73, Val_loss:  3.69, time: 12.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch: 72, Val_loss:  3.70, time: 16.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Epoch: 71, Val_loss:  3.64, time: 19.42, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Epoch: 70, Val_loss:  3.72, time: 13.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Epoch: 69, Val_loss:  3.59, time: 10.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Epoch: 68, Val_loss:  3.64, time: 12.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Epoch: 67, Val_loss:  3.61, time: 14.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Epoch: 66, Val_loss:  3.63, time: 19.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Epoch: 65, Val_loss:  3.50, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Epoch: 64, Val_loss:  3.58, time: 12.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Epoch: 63, Val_loss:  3.52, time: 14.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Epoch: 62, Val_loss:  3.56, time: 13.17, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Epoch: 61, Val_loss:  3.44, time: 15.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Epoch: 60, Val_loss:  3.53, time: 17.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Epoch: 59, Val_loss:  3.42, time: 17.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Epoch: 58, Val_loss:  3.54, time: 17.98, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Epoch: 57, Val_loss:  3.38, time: 15.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Epoch: 56, Val_loss:  3.46, time: 12.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Epoch: 55, Val_loss:  3.36, time: 17.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Epoch: 54, Val_loss:  3.45, time: 14.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Epoch: 53, Val_loss:  3.35, time: 17.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Epoch: 52, Val_loss:  3.45, time: 18.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Epoch: 51, Val_loss:  3.32, time: 16.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Epoch: 50, Val_loss:  3.31, time: 11.67, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Epoch: 49, Val_loss:  3.24, time: 21.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Epoch: 48, Val_loss:  3.30, time: 17.27, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Epoch: 47, Val_loss:  3.21, time: 16.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Epoch: 46, Val_loss:  3.22, time: 14.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Epoch: 45, Val_loss:  3.14, time: 15.23, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Epoch: 44, Val_loss:  3.22, time: 11.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Epoch: 43, Val_loss:  3.11, time: 13.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Epoch: 42, Val_loss:  3.14, time: 12.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Epoch: 41, Val_loss:  3.04, time: 15.22, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Epoch: 40, Val_loss:  3.11, time: 17.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Epoch: 39, Val_loss:  2.97, time: 13.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Epoch: 38, Val_loss:  3.08, time: 13.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Epoch: 37, Val_loss:  2.93, time: 13.40, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Epoch: 36, Val_loss:  2.96, time: 12.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Epoch: 35, Val_loss:  2.90, time: 13.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Epoch: 34, Val_loss:  2.89, time: 12.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Epoch: 33, Val_loss:  2.83, time: 15.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Epoch: 32, Val_loss:  2.82, time: 18.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Epoch: 31, Val_loss:  2.79, time: 16.81, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Epoch: 30, Val_loss:  2.76, time: 14.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Epoch: 29, Val_loss:  2.76, time: 11.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Epoch: 28, Val_loss:  2.70, time: 11.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Epoch: 27, Val_loss:  2.71, time: 17.96, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Epoch: 26, Val_loss:  2.61, time: 20.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Epoch: 25, Val_loss:  2.65, time: 17.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Epoch: 24, Val_loss:  2.61, time: 17.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Epoch: 23, Val_loss:  2.58, time: 15.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Epoch: 22, Val_loss:  2.53, time: 13.85, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Epoch: 21, Val_loss:  2.56, time: 16.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Epoch: 20, Val_loss:  2.50, time: 15.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Epoch: 19, Val_loss:  2.49, time: 15.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Epoch: 18, Val_loss:  2.48, time: 16.89, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Epoch: 17, Val_loss:  2.47, time: 15.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Epoch: 16, Val_loss:  2.46, time: 12.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Epoch: 15, Val_loss:  2.46, time: 14.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Epoch: 14, Val_loss:  2.42, time: 12.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Epoch: 13, Val_loss:  2.39, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Epoch: 12, Val_loss:  2.39, time: 12.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Epoch: 11, Val_loss:  2.36, time: 16.99, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Epoch: 10, Val_loss:  2.33, time: 17.68, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Epoch:  9, Val_loss:  2.30, time: 20.13, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Epoch:  8, Val_loss:  2.28, time: 15.31, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Epoch:  7, Val_loss:  2.26, time: 10.09, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Epoch:  6, Val_loss:  2.24, time: 16.02, test_Acc:  38.16, test_bacc:  37.33, test_f1:  28.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Epoch:  5, Val_loss:  2.27, time: 30.27, test_Acc:  37.06, test_bacc:  36.13, test_f1:  26.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Epoch:  4, Val_loss:  2.32, time: 23.15, test_Acc:  37.06, test_bacc:  36.13, test_f1:  26.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Epoch:  3, Val_loss:  2.37, time: 26.81, test_Acc:  37.06, test_bacc:  36.04, test_f1:  26.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  2.43, time: 25.32, test_Acc:  37.94, test_bacc:  36.73, test_f1:  26.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.49, time: 26.42, test_Acc:  37.94, test_bacc:  36.73, test_f1:  26.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Epoch:  0, Val_loss:  2.55, time: 26.51, test_Acc:  37.94, test_bacc:  36.68, test_f1:  26.13</t>
         </is>
       </c>
     </row>
@@ -4673,7 +8216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A309"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4684,2163 +8227,1216 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Epoch_Output</t>
+          <t>Split_Output</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:307, Val_loss:  5.19, time: 16.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>split:   1, val_loss:  10.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:306, Val_loss:  8.10, time: 11.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>split:   0, val_loss:   3.86, test_Acc:  35.53, test_bacc:  34.59, test_f1:  24.67</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A168"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Epoch:166, Val_loss: 10.36, time: 25.42, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Epoch:165, Val_loss: 15.28, time: 19.53, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:305, Val_loss:  5.48, time: 18.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:164, Val_loss:  9.31, time: 19.77, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:304, Val_loss:  7.50, time: 17.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:163, Val_loss: 11.24, time: 20.32, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:303, Val_loss:  5.73, time: 12.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:162, Val_loss:  8.64, time: 20.97, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:302, Val_loss:  7.29, time: 16.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:161, Val_loss: 11.16, time: 20.59, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:301, Val_loss:  6.65, time: 13.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:160, Val_loss:  9.10, time: 18.14, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:300, Val_loss:  7.88, time: 13.17, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:159, Val_loss: 10.05, time: 19.65, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:299, Val_loss:  6.10, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:158, Val_loss: 11.10, time: 23.03, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:298, Val_loss:  9.19, time: 12.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:157, Val_loss: 10.35, time: 19.16, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:297, Val_loss:  7.07, time: 15.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:156, Val_loss: 10.84, time: 21.55, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:296, Val_loss:  9.29, time: 16.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:155, Val_loss:  9.60, time: 18.01, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:295, Val_loss:  7.80, time: 16.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:154, Val_loss: 10.48, time: 17.54, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:294, Val_loss:  8.76, time: 20.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:153, Val_loss: 11.09, time: 19.37, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:293, Val_loss:  7.46, time: 12.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:152, Val_loss:  9.98, time: 26.00, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:292, Val_loss:  7.59, time: 13.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:151, Val_loss: 11.22, time: 18.78, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:291, Val_loss:  6.78, time: 13.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:150, Val_loss:  8.64, time: 16.84, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:290, Val_loss:  6.62, time: 19.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:149, Val_loss: 10.75, time: 18.67, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:289, Val_loss:  6.09, time: 18.71, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:148, Val_loss: 10.00, time: 25.51, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:288, Val_loss:  6.88, time: 16.78, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:147, Val_loss: 11.03, time: 21.76, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:287, Val_loss:  6.46, time: 18.22, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:146, Val_loss:  9.99, time: 24.15, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:286, Val_loss:  7.04, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:145, Val_loss: 10.17, time: 26.82, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:285, Val_loss:  6.27, time: 17.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:144, Val_loss:  9.79, time: 20.98, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:284, Val_loss:  6.37, time: 18.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:143, Val_loss: 10.32, time: 19.23, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:283, Val_loss:  5.89, time: 18.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:142, Val_loss: 10.34, time: 20.58, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:282, Val_loss:  6.14, time: 15.55, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:141, Val_loss: 10.18, time: 20.34, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:281, Val_loss:  5.82, time: 16.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:140, Val_loss: 10.20, time: 23.77, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:280, Val_loss:  6.01, time: 12.42, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:139, Val_loss: 11.15, time: 22.84, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:279, Val_loss:  6.31, time: 13.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:138, Val_loss:  7.41, time: 23.96, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:278, Val_loss:  6.04, time: 10.95, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:137, Val_loss:  9.77, time: 21.36, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:277, Val_loss:  5.76, time: 10.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:136, Val_loss:  9.83, time: 21.36, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:276, Val_loss:  6.79, time: 12.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:135, Val_loss:  7.38, time: 22.91, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:275, Val_loss:  5.66, time: 20.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:134, Val_loss: 10.26, time: 20.63, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:274, Val_loss:  6.51, time: 15.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:133, Val_loss:  6.81, time: 21.22, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:273, Val_loss:  5.71, time: 19.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:132, Val_loss: 10.27, time: 22.84, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:272, Val_loss:  6.24, time: 12.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:131, Val_loss:  8.73, time: 22.27, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:271, Val_loss:  5.71, time: 16.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:130, Val_loss:  9.73, time: 16.99, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:270, Val_loss:  6.07, time: 16.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:129, Val_loss:  9.56, time: 17.00, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:269, Val_loss:  5.63, time: 13.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:128, Val_loss:  8.03, time: 19.89, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:268, Val_loss:  6.02, time: 15.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:127, Val_loss:  8.97, time: 19.24, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:267, Val_loss:  5.82, time: 14.43, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:126, Val_loss:  9.63, time: 19.18, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:266, Val_loss:  5.97, time: 18.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:125, Val_loss:  7.61, time: 20.85, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:265, Val_loss:  5.70, time: 19.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:124, Val_loss:  9.60, time: 21.77, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:264, Val_loss:  7.13, time: 16.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:123, Val_loss:  6.87, time: 18.65, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:263, Val_loss:  5.66, time: 20.90, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:122, Val_loss: 13.30, time: 17.83, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:262, Val_loss:  6.56, time: 16.88, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:121, Val_loss:  7.34, time: 19.45, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:261, Val_loss:  5.59, time: 19.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:120, Val_loss:  8.34, time: 19.82, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:260, Val_loss:  6.62, time: 22.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:119, Val_loss:  7.46, time: 19.28, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:259, Val_loss:  5.69, time: 16.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:118, Val_loss:  7.46, time: 25.77, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:258, Val_loss:  6.32, time: 12.65, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:117, Val_loss:  7.41, time: 20.90, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:257, Val_loss:  6.25, time: 14.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:116, Val_loss:  7.54, time: 19.53, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:256, Val_loss:  7.20, time: 16.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:115, Val_loss:  7.30, time: 19.55, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:255, Val_loss:  5.86, time: 14.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:114, Val_loss:  7.37, time: 21.70, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:254, Val_loss:  7.24, time: 15.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:113, Val_loss:  7.10, time: 22.17, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:253, Val_loss:  6.42, time: 19.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:112, Val_loss:  7.16, time: 18.64, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:252, Val_loss:  5.96, time: 17.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:111, Val_loss:  7.02, time: 18.11, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:251, Val_loss:  5.15, time: 18.31, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:110, Val_loss:  7.22, time: 20.68, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:250, Val_loss:  6.09, time: 17.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:109, Val_loss:  6.91, time: 18.75, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:249, Val_loss:  5.32, time: 13.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:108, Val_loss:  7.06, time: 20.23, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:248, Val_loss:  6.54, time: 20.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:107, Val_loss:  7.03, time: 17.40, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:247, Val_loss:  5.42, time: 20.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:106, Val_loss:  6.88, time: 22.97, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:246, Val_loss:  6.22, time: 22.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:105, Val_loss:  6.94, time: 20.11, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:245, Val_loss:  5.64, time: 16.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:104, Val_loss:  6.91, time: 22.66, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:244, Val_loss:  6.10, time: 20.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:103, Val_loss:  6.82, time: 23.86, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:243, Val_loss:  5.48, time: 15.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:102, Val_loss:  7.11, time: 17.45, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:242, Val_loss:  5.42, time: 19.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:101, Val_loss:  6.89, time: 19.26, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:241, Val_loss:  5.12, time: 21.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:100, Val_loss:  7.04, time: 18.69, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:240, Val_loss:  6.52, time: 21.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 99, Val_loss:  6.85, time: 21.25, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:239, Val_loss:  5.68, time: 19.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 98, Val_loss:  6.99, time: 19.29, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:238, Val_loss:  6.13, time: 23.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 97, Val_loss:  6.93, time: 18.91, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:237, Val_loss:  5.31, time: 21.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 96, Val_loss:  6.82, time: 20.17, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:236, Val_loss:  5.88, time: 19.32, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 95, Val_loss:  6.70, time: 18.90, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:235, Val_loss:  7.75, time: 17.54, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 94, Val_loss:  6.83, time: 20.15, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:234, Val_loss:  6.63, time: 20.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 93, Val_loss:  6.73, time: 16.15, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:233, Val_loss:  7.73, time: 21.81, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 92, Val_loss:  6.62, time: 22.29, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:232, Val_loss:  7.43, time: 16.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 91, Val_loss:  6.64, time: 22.27, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:231, Val_loss:  8.15, time: 14.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 90, Val_loss:  6.72, time: 22.12, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:230, Val_loss:  7.04, time: 13.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 89, Val_loss:  6.58, time: 19.62, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:229, Val_loss:  7.94, time: 11.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 88, Val_loss:  6.62, time: 15.36, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:228, Val_loss:  6.67, time: 13.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 87, Val_loss:  6.36, time: 18.11, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:227, Val_loss:  6.89, time: 17.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 86, Val_loss:  6.49, time: 23.69, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:226, Val_loss:  6.13, time: 13.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 85, Val_loss:  6.11, time: 23.34, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:225, Val_loss:  6.42, time: 13.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 84, Val_loss:  6.44, time: 20.16, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:224, Val_loss:  6.16, time: 15.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 83, Val_loss:  6.14, time: 21.46, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:223, Val_loss:  6.72, time: 15.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 82, Val_loss:  6.28, time: 20.26, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:222, Val_loss:  6.45, time: 13.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 81, Val_loss:  6.24, time: 21.65, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:221, Val_loss:  7.16, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 80, Val_loss:  6.14, time: 20.25, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:220, Val_loss:  6.26, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 79, Val_loss:  6.21, time: 20.77, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:219, Val_loss:  7.42, time: 16.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 78, Val_loss:  6.13, time: 19.24, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:218, Val_loss:  7.53, time: 15.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 77, Val_loss:  6.10, time: 19.59, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:217, Val_loss:  8.23, time: 15.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 76, Val_loss:  6.07, time: 17.34, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:216, Val_loss:  7.47, time: 18.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 75, Val_loss:  6.06, time: 25.84, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:215, Val_loss:  6.74, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 74, Val_loss:  5.83, time: 22.07, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:214, Val_loss:  7.49, time: 12.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 73, Val_loss:  5.96, time: 21.78, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch:213, Val_loss:  6.01, time: 14.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 72, Val_loss:  6.01, time: 20.95, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch:212, Val_loss:  6.81, time: 13.03, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 71, Val_loss:  5.98, time: 23.47, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch:211, Val_loss:  6.49, time: 17.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 70, Val_loss:  6.04, time: 28.17, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch:210, Val_loss:  6.94, time: 18.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 69, Val_loss:  5.86, time: 19.98, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch:209, Val_loss:  6.77, time: 13.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 68, Val_loss:  5.99, time: 17.49, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch:208, Val_loss:  6.60, time: 14.07, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 67, Val_loss:  5.81, time: 19.28, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch:207, Val_loss:  6.54, time: 15.02, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 66, Val_loss:  5.89, time: 22.38, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch:206, Val_loss:  6.52, time: 12.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 65, Val_loss:  5.84, time: 18.34, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch:205, Val_loss:  6.26, time: 14.40, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 64, Val_loss:  5.76, time: 17.25, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch:204, Val_loss:  5.75, time: 13.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 63, Val_loss:  5.62, time: 21.83, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:203, Val_loss:  6.20, time: 13.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 62, Val_loss:  5.67, time: 25.98, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:202, Val_loss:  5.99, time: 16.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 61, Val_loss:  5.63, time: 18.81, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:201, Val_loss:  6.69, time: 17.56, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 60, Val_loss:  5.62, time: 21.27, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:200, Val_loss:  6.71, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 59, Val_loss:  5.43, time: 16.79, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:199, Val_loss:  6.68, time: 17.33, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 58, Val_loss:  5.62, time: 20.64, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:198, Val_loss:  6.46, time: 11.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 57, Val_loss:  5.61, time: 18.06, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:197, Val_loss:  6.27, time: 14.80, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 56, Val_loss:  5.51, time: 23.19, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:196, Val_loss:  6.76, time: 18.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 55, Val_loss:  5.57, time: 18.74, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:195, Val_loss:  6.97, time: 11.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 54, Val_loss:  5.63, time: 17.34, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epoch:194, Val_loss:  6.82, time: 18.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 53, Val_loss:  5.49, time: 17.52, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epoch:193, Val_loss:  6.52, time: 15.62, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 52, Val_loss:  5.48, time: 21.32, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epoch:192, Val_loss:  6.97, time: 14.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 51, Val_loss:  5.52, time: 16.53, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epoch:191, Val_loss:  7.10, time: 15.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 50, Val_loss:  5.51, time: 19.95, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epoch:190, Val_loss:  6.35, time: 15.74, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 49, Val_loss:  5.45, time: 22.31, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epoch:189, Val_loss:  6.55, time: 12.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 48, Val_loss:  5.54, time: 23.80, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Epoch:188, Val_loss:  6.18, time: 16.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 47, Val_loss:  5.46, time: 18.36, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Epoch:187, Val_loss:  6.31, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 46, Val_loss:  5.50, time: 16.11, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epoch:186, Val_loss:  5.53, time: 17.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 45, Val_loss:  5.47, time: 15.41, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Epoch:185, Val_loss:  6.34, time: 14.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 44, Val_loss:  5.49, time: 21.96, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Epoch:184, Val_loss:  5.52, time: 16.95, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 43, Val_loss:  5.39, time: 18.86, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Epoch:183, Val_loss:  6.26, time: 14.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 42, Val_loss:  5.49, time: 20.89, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Epoch:182, Val_loss:  5.45, time: 15.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 41, Val_loss:  5.37, time: 14.83, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Epoch:181, Val_loss:  6.17, time: 16.83, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 40, Val_loss:  5.44, time: 28.72, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Epoch:180, Val_loss:  5.76, time: 16.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 39, Val_loss:  5.41, time: 20.86, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Epoch:179, Val_loss:  6.05, time: 16.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 38, Val_loss:  5.52, time: 19.39, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Epoch:178, Val_loss:  5.43, time: 15.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 37, Val_loss:  5.41, time: 24.31, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Epoch:177, Val_loss:  5.81, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 36, Val_loss:  5.48, time: 23.82, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Epoch:176, Val_loss:  5.46, time: 11.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 35, Val_loss:  5.33, time: 22.10, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Epoch:175, Val_loss:  5.59, time: 14.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 34, Val_loss:  5.42, time: 23.28, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Epoch:174, Val_loss:  5.33, time: 11.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 33, Val_loss:  5.32, time: 20.05, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Epoch:173, Val_loss:  5.88, time: 16.58, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 32, Val_loss:  5.33, time: 22.71, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Epoch:172, Val_loss:  5.43, time: 18.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 31, Val_loss:  5.34, time: 21.35, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Epoch:171, Val_loss:  5.79, time: 15.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 30, Val_loss:  5.40, time: 20.56, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Epoch:170, Val_loss:  5.02, time: 13.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 29, Val_loss:  5.36, time: 21.63, test_Acc:  38.60, test_bacc:  37.10, test_f1:  33.86</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Epoch:169, Val_loss:  5.77, time: 12.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 28, Val_loss:  5.38, time: 20.48, test_Acc:  39.25, test_bacc:  37.79, test_f1:  34.69</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Epoch:168, Val_loss:  5.18, time: 11.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 27, Val_loss:  5.32, time: 17.03, test_Acc:  39.25, test_bacc:  37.64, test_f1:  33.98</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Epoch:167, Val_loss:  5.19, time: 15.53, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 26, Val_loss:  5.42, time: 18.46, test_Acc:  39.04, test_bacc:  37.53, test_f1:  33.88</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Epoch:166, Val_loss:  4.54, time: 16.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 25, Val_loss:  5.35, time: 22.17, test_Acc:  39.04, test_bacc:  37.53, test_f1:  33.88</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Epoch:165, Val_loss:  5.23, time: 23.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 24, Val_loss:  5.37, time: 23.46, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Epoch:164, Val_loss:  4.25, time: 16.06, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 23, Val_loss:  5.24, time: 23.29, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Epoch:163, Val_loss:  5.21, time: 17.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 22, Val_loss:  5.30, time: 21.26, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Epoch:162, Val_loss:  4.25, time: 13.43, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 21, Val_loss:  5.23, time: 21.64, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Epoch:161, Val_loss:  5.17, time: 15.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 20, Val_loss:  5.24, time: 21.68, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Epoch:160, Val_loss:  4.81, time: 14.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 19, Val_loss:  5.25, time: 17.57, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Epoch:159, Val_loss:  5.42, time: 16.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 18, Val_loss:  5.24, time: 24.37, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Epoch:158, Val_loss:  5.19, time: 17.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 17, Val_loss:  5.15, time: 14.30, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Epoch:157, Val_loss:  5.57, time: 15.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 16, Val_loss:  5.18, time: 15.86, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Epoch:156, Val_loss:  5.22, time: 17.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 15, Val_loss:  5.09, time: 21.30, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Epoch:155, Val_loss:  5.74, time: 17.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 14, Val_loss:  5.16, time: 21.64, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Epoch:154, Val_loss:  4.65, time: 16.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 13, Val_loss:  5.09, time: 18.68, test_Acc:  36.62, test_bacc:  35.76, test_f1:  31.35</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Epoch:153, Val_loss:  5.33, time: 13.11, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 12, Val_loss:  5.05, time: 20.29, test_Acc:  36.18, test_bacc:  35.40, test_f1:  30.85</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Epoch:152, Val_loss:  4.64, time: 13.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 11, Val_loss:  5.00, time: 20.30, test_Acc:  36.18, test_bacc:  35.45, test_f1:  30.67</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Epoch:151, Val_loss:  5.22, time: 15.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch: 10, Val_loss:  5.06, time: 16.21, test_Acc:  35.75, test_bacc:  34.98, test_f1:  30.43</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Epoch:150, Val_loss:  4.61, time: 13.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:  9, Val_loss:  5.03, time: 17.50, test_Acc:  36.40, test_bacc:  35.67, test_f1:  30.79</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Epoch:149, Val_loss:  5.23, time: 13.90, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:  8, Val_loss:  5.08, time: 22.20, test_Acc:  35.75, test_bacc:  35.01, test_f1:  30.01</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Epoch:148, Val_loss:  4.41, time: 14.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:  7, Val_loss:  5.12, time: 18.06, test_Acc:  35.75, test_bacc:  35.08, test_f1:  30.27</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Epoch:147, Val_loss:  5.29, time: 14.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:  6, Val_loss:  5.07, time: 25.32, test_Acc:  35.31, test_bacc:  34.66, test_f1:  29.59</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Epoch:146, Val_loss:  4.31, time: 15.00, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:  5, Val_loss:  5.20, time: 41.10, test_Acc:  34.21, test_bacc:  33.65, test_f1:  28.39</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Epoch:145, Val_loss:  5.34, time: 18.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:  4, Val_loss:  5.36, time: 39.46, test_Acc:  34.21, test_bacc:  33.76, test_f1:  28.24</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Epoch:144, Val_loss:  4.42, time: 16.48, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:  3, Val_loss:  5.55, time: 33.08, test_Acc:  34.21, test_bacc:  33.76, test_f1:  28.24</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Epoch:143, Val_loss:  5.71, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:  2, Val_loss:  5.77, time: 45.12, test_Acc:  32.89, test_bacc:  32.55, test_f1:  27.05</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Epoch:142, Val_loss:  4.61, time: 15.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:  1, Val_loss:  6.05, time: 32.29, test_Acc:  31.58, test_bacc:  31.47, test_f1:  25.80</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Epoch:141, Val_loss:  5.70, time: 17.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Epoch:140, Val_loss:  4.43, time: 17.85, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Epoch:139, Val_loss:  5.79, time: 15.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Epoch:138, Val_loss:  4.31, time: 13.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Epoch:137, Val_loss:  5.39, time: 15.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Epoch:136, Val_loss:  4.39, time: 14.04, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Epoch:135, Val_loss:  5.21, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Epoch:134, Val_loss:  4.05, time: 17.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Epoch:133, Val_loss:  4.76, time: 10.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Epoch:132, Val_loss:  3.89, time: 12.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Epoch:131, Val_loss:  5.37, time: 15.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Epoch:130, Val_loss:  3.73, time: 16.41, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Epoch:129, Val_loss:  4.31, time: 16.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Epoch:128, Val_loss:  3.76, time: 17.94, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Epoch:127, Val_loss:  4.40, time: 14.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Epoch:126, Val_loss:  3.85, time: 16.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Epoch:125, Val_loss:  4.47, time: 18.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Epoch:124, Val_loss:  3.88, time: 14.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Epoch:123, Val_loss:  4.34, time: 14.56, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Epoch:122, Val_loss:  3.67, time: 20.24, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Epoch:121, Val_loss:  4.86, time: 13.78, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Epoch:120, Val_loss:  3.43, time: 16.06, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Epoch:119, Val_loss:  4.42, time: 16.44, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Epoch:118, Val_loss:  3.73, time: 16.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Epoch:117, Val_loss:  4.58, time: 16.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Epoch:116, Val_loss:  3.96, time: 17.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Epoch:115, Val_loss:  4.51, time: 16.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Epoch:114, Val_loss:  4.11, time: 16.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Epoch:113, Val_loss:  3.74, time: 13.87, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Epoch:112, Val_loss:  3.72, time: 11.91, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Epoch:111, Val_loss:  4.76, time: 15.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Epoch:110, Val_loss:  3.48, time: 15.16, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Epoch:109, Val_loss:  3.99, time: 15.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Epoch:108, Val_loss:  4.06, time: 18.70, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Epoch:107, Val_loss:  3.94, time: 15.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Epoch:106, Val_loss:  4.01, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Epoch:105, Val_loss:  3.91, time: 13.71, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Epoch:104, Val_loss:  4.01, time: 13.61, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Epoch:103, Val_loss:  3.92, time: 11.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Epoch:102, Val_loss:  4.06, time: 16.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Epoch:101, Val_loss:  3.95, time: 16.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Epoch:100, Val_loss:  3.98, time: 15.96, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Epoch: 99, Val_loss:  3.85, time: 15.30, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Epoch: 98, Val_loss:  3.95, time: 15.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Epoch: 97, Val_loss:  3.86, time: 15.64, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Epoch: 96, Val_loss:  3.97, time: 15.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Epoch: 95, Val_loss:  3.84, time: 14.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Epoch: 94, Val_loss:  3.93, time: 15.68, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Epoch: 93, Val_loss:  3.83, time: 15.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Epoch: 92, Val_loss:  3.93, time: 16.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Epoch: 91, Val_loss:  3.81, time: 17.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Epoch: 90, Val_loss:  3.91, time: 20.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Epoch: 89, Val_loss:  3.80, time: 17.38, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Epoch: 88, Val_loss:  3.90, time: 20.75, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Epoch: 87, Val_loss:  3.77, time: 17.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Epoch: 86, Val_loss:  3.87, time: 12.70, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Epoch: 85, Val_loss:  3.77, time: 14.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Epoch: 84, Val_loss:  3.85, time: 15.50, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Epoch: 83, Val_loss:  3.72, time: 17.54, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Epoch: 82, Val_loss:  3.87, time: 11.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Epoch: 81, Val_loss:  3.72, time: 13.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Epoch: 80, Val_loss:  3.83, time: 17.29, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Epoch: 79, Val_loss:  3.75, time: 13.97, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Epoch: 78, Val_loss:  3.82, time: 14.14, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Epoch: 77, Val_loss:  3.71, time: 12.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Epoch: 76, Val_loss:  3.79, time: 15.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Epoch: 75, Val_loss:  3.67, time: 13.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Epoch: 74, Val_loss:  3.73, time: 14.84, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Epoch: 73, Val_loss:  3.69, time: 12.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Epoch: 72, Val_loss:  3.70, time: 16.72, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Epoch: 71, Val_loss:  3.64, time: 19.42, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Epoch: 70, Val_loss:  3.72, time: 13.25, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Epoch: 69, Val_loss:  3.59, time: 10.92, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Epoch: 68, Val_loss:  3.64, time: 12.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Epoch: 67, Val_loss:  3.61, time: 14.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Epoch: 66, Val_loss:  3.63, time: 19.28, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Epoch: 65, Val_loss:  3.50, time: 16.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Epoch: 64, Val_loss:  3.58, time: 12.51, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Epoch: 63, Val_loss:  3.52, time: 14.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Epoch: 62, Val_loss:  3.56, time: 13.17, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Epoch: 61, Val_loss:  3.44, time: 15.21, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Epoch: 60, Val_loss:  3.53, time: 17.49, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Epoch: 59, Val_loss:  3.42, time: 17.57, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Epoch: 58, Val_loss:  3.54, time: 17.98, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Epoch: 57, Val_loss:  3.38, time: 15.77, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Epoch: 56, Val_loss:  3.46, time: 12.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Epoch: 55, Val_loss:  3.36, time: 17.12, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Epoch: 54, Val_loss:  3.45, time: 14.26, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Epoch: 53, Val_loss:  3.35, time: 17.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Epoch: 52, Val_loss:  3.45, time: 18.73, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Epoch: 51, Val_loss:  3.32, time: 16.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Epoch: 50, Val_loss:  3.31, time: 11.67, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Epoch: 49, Val_loss:  3.24, time: 21.39, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Epoch: 48, Val_loss:  3.30, time: 17.27, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Epoch: 47, Val_loss:  3.21, time: 16.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Epoch: 46, Val_loss:  3.22, time: 14.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Epoch: 45, Val_loss:  3.14, time: 15.23, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Epoch: 44, Val_loss:  3.22, time: 11.37, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Epoch: 43, Val_loss:  3.11, time: 13.45, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Epoch: 42, Val_loss:  3.14, time: 12.47, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Epoch: 41, Val_loss:  3.04, time: 15.22, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Epoch: 40, Val_loss:  3.11, time: 17.69, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Epoch: 39, Val_loss:  2.97, time: 13.59, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Epoch: 38, Val_loss:  3.08, time: 13.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Epoch: 37, Val_loss:  2.93, time: 13.40, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Epoch: 36, Val_loss:  2.96, time: 12.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Epoch: 35, Val_loss:  2.90, time: 13.63, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Epoch: 34, Val_loss:  2.89, time: 12.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Epoch: 33, Val_loss:  2.83, time: 15.79, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Epoch: 32, Val_loss:  2.82, time: 18.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Epoch: 31, Val_loss:  2.79, time: 16.81, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Epoch: 30, Val_loss:  2.76, time: 14.60, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Epoch: 29, Val_loss:  2.76, time: 11.01, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Epoch: 28, Val_loss:  2.70, time: 11.18, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Epoch: 27, Val_loss:  2.71, time: 17.96, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Epoch: 26, Val_loss:  2.61, time: 20.35, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Epoch: 25, Val_loss:  2.65, time: 17.05, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Epoch: 24, Val_loss:  2.61, time: 17.86, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Epoch: 23, Val_loss:  2.58, time: 15.20, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Epoch: 22, Val_loss:  2.53, time: 13.85, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Epoch: 21, Val_loss:  2.56, time: 16.08, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Epoch: 20, Val_loss:  2.50, time: 15.09, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Epoch: 19, Val_loss:  2.49, time: 15.34, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Epoch: 18, Val_loss:  2.48, time: 16.89, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Epoch: 17, Val_loss:  2.47, time: 15.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Epoch: 16, Val_loss:  2.46, time: 12.13, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Epoch: 15, Val_loss:  2.46, time: 14.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Epoch: 14, Val_loss:  2.42, time: 12.15, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Epoch: 13, Val_loss:  2.39, time: 11.82, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Epoch: 12, Val_loss:  2.39, time: 12.76, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Epoch: 11, Val_loss:  2.36, time: 16.99, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Epoch: 10, Val_loss:  2.33, time: 17.68, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Epoch:  9, Val_loss:  2.30, time: 20.13, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Epoch:  8, Val_loss:  2.28, time: 15.31, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Epoch:  7, Val_loss:  2.26, time: 10.09, test_Acc:  39.47, test_bacc:  38.69, test_f1:  30.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Epoch:  6, Val_loss:  2.24, time: 16.02, test_Acc:  38.16, test_bacc:  37.33, test_f1:  28.96</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Epoch:  5, Val_loss:  2.27, time: 30.27, test_Acc:  37.06, test_bacc:  36.13, test_f1:  26.94</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Epoch:  4, Val_loss:  2.32, time: 23.15, test_Acc:  37.06, test_bacc:  36.13, test_f1:  26.94</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Epoch:  3, Val_loss:  2.37, time: 26.81, test_Acc:  37.06, test_bacc:  36.04, test_f1:  26.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Epoch:  2, Val_loss:  2.43, time: 25.32, test_Acc:  37.94, test_bacc:  36.73, test_f1:  26.42</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Epoch:  1, Val_loss:  2.49, time: 26.42, test_Acc:  37.94, test_bacc:  36.73, test_f1:  26.42</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Epoch:  0, Val_loss:  2.55, time: 26.51, test_Acc:  37.94, test_bacc:  36.68, test_f1:  26.13</t>
+          <t>Epoch:  0, Val_loss:  6.35, time: 35.80, test_Acc:  31.14, test_bacc:  31.07, test_f1:  25.42</t>
         </is>
       </c>
     </row>

--- a/TrueAug_Cheb_WikipediaNetworkchameleon12-31-15:20:16_dir.xlsx
+++ b/TrueAug_Cheb_WikipediaNetworkchameleon12-31-15:20:16_dir.xlsx
@@ -15,8 +15,9 @@
     <sheet name="Epoch4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Epoch5" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Epoch6" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Split" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Epoch7" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Epoch7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Split" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Epoch8" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -861,7 +862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A282"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,1974 +873,2686 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Epoch_Output</t>
+          <t>Split_Output</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:280, Val_loss:  5.36, time: 21.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>split:   7, val_loss:   3.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:279, Val_loss:  3.70, time: 19.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>split:   6, val_loss:   5.36, test_Acc:  34.65, test_bacc:  35.72, test_f1:  30.96</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:278, Val_loss:  5.38, time: 22.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>split:   5, val_loss:  10.57, test_Acc:  39.69, test_bacc:  34.19, test_f1:  27.63</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:277, Val_loss:  3.77, time: 19.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>split:   4, val_loss:   6.18, test_Acc:  43.42, test_bacc:  39.93, test_f1:  36.93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:276, Val_loss:  5.46, time: 22.15, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>split:   3, val_loss:   6.94, test_Acc:  38.60, test_bacc:  37.09, test_f1:  30.13</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:275, Val_loss:  3.73, time: 19.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>split:   2, val_loss:   8.18, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:274, Val_loss:  5.59, time: 24.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>split:   1, val_loss:  10.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:273, Val_loss:  3.75, time: 15.82, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>split:   0, val_loss:   3.86, test_Acc:  35.53, test_bacc:  34.59, test_f1:  24.67</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A372"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Epoch:370, Val_loss:  3.03, time: 21.13, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Epoch:369, Val_loss:  4.64, time: 24.13, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Epoch:368, Val_loss:  3.06, time: 21.39, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Epoch:367, Val_loss:  4.69, time: 24.14, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:366, Val_loss:  3.03, time: 23.73, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:365, Val_loss:  4.66, time: 19.00, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:364, Val_loss:  3.03, time: 16.55, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:363, Val_loss:  4.78, time: 19.62, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:272, Val_loss:  5.54, time: 23.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:362, Val_loss:  3.13, time: 19.63, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:271, Val_loss:  3.69, time: 15.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:361, Val_loss:  4.84, time: 18.49, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:270, Val_loss:  5.52, time: 18.16, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:360, Val_loss:  3.62, time: 25.54, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:269, Val_loss:  3.72, time: 19.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:359, Val_loss:  4.03, time: 19.86, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:268, Val_loss:  5.62, time: 20.34, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:358, Val_loss:  3.16, time: 16.64, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:267, Val_loss:  3.84, time: 16.81, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:357, Val_loss:  4.26, time: 23.86, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:266, Val_loss:  5.83, time: 19.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:356, Val_loss:  3.52, time: 22.88, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:265, Val_loss:  3.98, time: 18.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:355, Val_loss:  4.16, time: 17.04, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:264, Val_loss:  6.05, time: 19.01, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:354, Val_loss:  3.45, time: 21.30, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:263, Val_loss:  4.06, time: 20.24, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:353, Val_loss:  4.33, time: 22.24, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:262, Val_loss:  6.36, time: 20.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:352, Val_loss:  3.11, time: 24.14, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:261, Val_loss:  4.26, time: 24.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:351, Val_loss:  4.14, time: 19.77, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:260, Val_loss:  6.35, time: 23.91, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:350, Val_loss:  3.00, time: 21.17, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:259, Val_loss:  4.23, time: 24.99, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:349, Val_loss:  3.87, time: 22.19, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:258, Val_loss:  4.97, time: 16.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:348, Val_loss:  3.53, time: 16.97, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:257, Val_loss:  5.94, time: 17.93, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:347, Val_loss:  3.44, time: 23.04, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:256, Val_loss:  4.75, time: 17.36, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:346, Val_loss:  3.17, time: 19.61, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:255, Val_loss:  5.99, time: 20.47, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:345, Val_loss:  4.22, time: 23.96, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:254, Val_loss:  4.83, time: 15.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:344, Val_loss:  3.32, time: 21.14, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:253, Val_loss:  5.76, time: 23.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:343, Val_loss:  3.66, time: 25.74, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:252, Val_loss:  4.72, time: 17.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:342, Val_loss:  3.33, time: 18.59, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:251, Val_loss:  6.07, time: 20.53, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:341, Val_loss:  3.30, time: 21.03, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:250, Val_loss:  4.36, time: 15.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:340, Val_loss:  2.84, time: 18.85, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:249, Val_loss:  5.69, time: 16.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:339, Val_loss:  3.71, time: 19.17, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:248, Val_loss:  5.29, time: 23.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:338, Val_loss:  2.66, time: 21.30, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:247, Val_loss:  4.14, time: 18.02, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:337, Val_loss:  3.84, time: 17.81, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:246, Val_loss:  6.19, time: 17.69, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:336, Val_loss:  3.14, time: 26.24, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:245, Val_loss:  3.92, time: 18.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:335, Val_loss:  4.29, time: 20.29, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:244, Val_loss:  5.66, time: 22.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:334, Val_loss:  2.89, time: 18.50, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:243, Val_loss:  3.54, time: 18.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:333, Val_loss:  3.94, time: 20.54, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:242, Val_loss:  5.73, time: 19.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:332, Val_loss:  2.85, time: 18.81, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:241, Val_loss:  3.78, time: 20.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:331, Val_loss:  4.21, time: 18.02, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:240, Val_loss:  5.16, time: 20.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:330, Val_loss:  2.85, time: 17.73, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:239, Val_loss:  3.56, time: 23.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:329, Val_loss:  4.24, time: 19.40, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:238, Val_loss:  5.31, time: 18.50, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:328, Val_loss:  2.82, time: 20.26, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:237, Val_loss:  3.49, time: 20.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:327, Val_loss:  4.21, time: 21.60, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:236, Val_loss:  5.38, time: 22.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:326, Val_loss:  2.81, time: 26.11, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:235, Val_loss:  3.67, time: 23.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:325, Val_loss:  4.05, time: 26.64, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:234, Val_loss:  5.23, time: 19.81, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:324, Val_loss:  2.76, time: 25.84, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:233, Val_loss:  4.04, time: 22.54, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:323, Val_loss:  4.31, time: 17.96, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:232, Val_loss:  6.11, time: 16.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:322, Val_loss:  2.92, time: 22.81, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:231, Val_loss:  4.05, time: 17.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:321, Val_loss:  3.72, time: 21.36, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:230, Val_loss:  6.10, time: 15.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:320, Val_loss:  3.27, time: 21.67, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:229, Val_loss:  4.09, time: 17.47, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:319, Val_loss:  3.46, time: 21.26, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:228, Val_loss:  6.22, time: 17.04, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:318, Val_loss:  2.91, time: 22.16, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:227, Val_loss:  4.81, time: 19.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:317, Val_loss:  3.54, time: 20.91, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:226, Val_loss:  4.68, time: 20.10, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:316, Val_loss:  3.59, time: 22.17, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:225, Val_loss:  5.36, time: 17.61, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:315, Val_loss:  3.54, time: 21.07, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:224, Val_loss:  4.36, time: 19.59, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:314, Val_loss:  3.63, time: 19.79, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:223, Val_loss:  5.92, time: 18.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:313, Val_loss:  3.37, time: 17.70, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:222, Val_loss:  4.10, time: 18.69, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:312, Val_loss:  3.87, time: 19.82, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:221, Val_loss:  6.53, time: 20.44, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:311, Val_loss:  3.88, time: 24.27, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:220, Val_loss:  4.93, time: 20.47, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:310, Val_loss:  2.74, time: 24.57, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:219, Val_loss:  3.96, time: 16.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:309, Val_loss:  4.08, time: 17.34, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:218, Val_loss:  5.70, time: 15.55, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:308, Val_loss:  2.83, time: 20.41, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:217, Val_loss:  3.67, time: 15.60, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:307, Val_loss:  4.19, time: 27.25, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:216, Val_loss:  5.78, time: 18.44, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:306, Val_loss:  3.34, time: 20.33, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:215, Val_loss:  3.66, time: 16.46, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:305, Val_loss:  3.37, time: 23.92, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:214, Val_loss:  5.77, time: 22.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:304, Val_loss:  3.60, time: 20.30, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:213, Val_loss:  3.66, time: 28.08, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:303, Val_loss:  3.72, time: 21.91, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:212, Val_loss:  5.79, time: 18.70, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:302, Val_loss:  2.85, time: 24.54, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:211, Val_loss:  3.87, time: 20.79, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:301, Val_loss:  4.32, time: 24.87, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:210, Val_loss:  5.71, time: 20.38, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:300, Val_loss:  2.83, time: 21.94, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:209, Val_loss:  3.66, time: 16.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:299, Val_loss:  4.43, time: 22.06, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:208, Val_loss:  5.83, time: 22.82, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:298, Val_loss:  2.84, time: 16.44, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:207, Val_loss:  3.70, time: 25.12, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:297, Val_loss:  4.41, time: 17.10, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:206, Val_loss:  5.80, time: 20.89, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:296, Val_loss:  2.88, time: 16.91, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:205, Val_loss:  3.89, time: 16.50, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:295, Val_loss:  4.48, time: 17.12, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:204, Val_loss:  5.93, time: 15.78, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:294, Val_loss:  2.94, time: 23.87, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:203, Val_loss:  4.29, time: 23.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:293, Val_loss:  4.55, time: 18.86, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:202, Val_loss:  5.33, time: 23.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:292, Val_loss:  3.01, time: 23.22, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:201, Val_loss:  4.86, time: 20.66, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:291, Val_loss:  4.62, time: 24.82, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:200, Val_loss:  5.48, time: 21.90, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:290, Val_loss:  3.38, time: 26.98, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:199, Val_loss:  3.73, time: 16.84, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:289, Val_loss:  3.88, time: 22.96, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:198, Val_loss:  6.02, time: 18.15, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:288, Val_loss:  3.66, time: 21.31, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:197, Val_loss:  3.88, time: 18.39, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:287, Val_loss:  3.65, time: 18.22, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:196, Val_loss:  6.12, time: 20.82, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:286, Val_loss:  3.16, time: 20.44, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:195, Val_loss:  4.82, time: 20.39, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:285, Val_loss:  4.58, time: 23.64, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:194, Val_loss:  4.52, time: 21.55, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:284, Val_loss:  3.13, time: 17.61, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:193, Val_loss:  3.76, time: 18.83, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:283, Val_loss:  4.31, time: 22.59, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:192, Val_loss:  5.78, time: 24.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:282, Val_loss:  3.68, time: 19.40, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:191, Val_loss:  3.65, time: 15.66, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:281, Val_loss:  4.07, time: 23.52, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:190, Val_loss:  5.88, time: 16.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:280, Val_loss:  3.38, time: 25.79, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:189, Val_loss:  3.65, time: 18.42, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:279, Val_loss:  3.90, time: 18.02, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:188, Val_loss:  5.74, time: 21.94, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:278, Val_loss:  3.54, time: 20.64, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:187, Val_loss:  3.71, time: 21.66, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:277, Val_loss:  4.44, time: 21.85, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch:186, Val_loss:  5.88, time: 16.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:276, Val_loss:  3.02, time: 20.52, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch:185, Val_loss:  3.64, time: 19.76, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:275, Val_loss:  4.63, time: 25.80, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch:184, Val_loss:  5.86, time: 22.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:274, Val_loss:  2.89, time: 28.24, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch:183, Val_loss:  3.71, time: 18.40, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:273, Val_loss:  4.78, time: 22.04, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch:182, Val_loss:  5.21, time: 26.32, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:272, Val_loss:  3.18, time: 19.82, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch:181, Val_loss:  3.37, time: 19.22, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:271, Val_loss:  4.81, time: 22.09, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch:180, Val_loss:  5.32, time: 20.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:270, Val_loss:  3.22, time: 21.36, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch:179, Val_loss:  3.46, time: 21.32, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:269, Val_loss:  4.46, time: 25.65, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch:178, Val_loss:  5.07, time: 24.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:268, Val_loss:  4.44, time: 21.14, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch:177, Val_loss:  4.54, time: 20.20, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:267, Val_loss:  3.90, time: 21.83, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:176, Val_loss:  6.37, time: 16.78, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:266, Val_loss:  4.41, time: 22.26, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:175, Val_loss:  4.75, time: 21.16, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:265, Val_loss:  3.90, time: 21.18, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:174, Val_loss:  4.78, time: 25.89, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:264, Val_loss:  4.05, time: 22.49, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:173, Val_loss:  3.56, time: 19.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:263, Val_loss:  3.34, time: 22.93, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:172, Val_loss:  5.34, time: 20.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:262, Val_loss:  4.00, time: 21.63, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:171, Val_loss:  5.30, time: 18.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:261, Val_loss:  3.75, time: 25.22, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:170, Val_loss:  4.42, time: 23.04, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:260, Val_loss:  4.20, time: 22.17, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:169, Val_loss:  5.11, time: 23.45, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:259, Val_loss:  4.31, time: 20.73, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:168, Val_loss:  4.34, time: 17.99, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:258, Val_loss:  2.88, time: 20.57, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epoch:167, Val_loss:  6.18, time: 22.59, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:257, Val_loss:  4.71, time: 19.96, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epoch:166, Val_loss:  4.17, time: 19.70, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:256, Val_loss:  3.23, time: 16.47, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epoch:165, Val_loss:  6.75, time: 16.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:255, Val_loss:  4.77, time: 22.58, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epoch:164, Val_loss:  4.24, time: 27.22, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:254, Val_loss:  3.32, time: 26.25, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epoch:163, Val_loss:  7.09, time: 22.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:253, Val_loss:  4.69, time: 19.05, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epoch:162, Val_loss:  5.74, time: 21.60, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:252, Val_loss:  3.03, time: 17.64, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Epoch:161, Val_loss:  4.59, time: 21.08, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:251, Val_loss:  4.86, time: 17.85, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Epoch:160, Val_loss:  6.12, time: 21.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:250, Val_loss:  3.15, time: 19.15, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epoch:159, Val_loss:  4.70, time: 20.86, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:249, Val_loss:  4.86, time: 21.67, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Epoch:158, Val_loss:  6.12, time: 24.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:248, Val_loss:  3.20, time: 24.10, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Epoch:157, Val_loss:  4.04, time: 21.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:247, Val_loss:  3.83, time: 19.25, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Epoch:156, Val_loss:  6.43, time: 25.90, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:246, Val_loss:  3.42, time: 23.45, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Epoch:155, Val_loss:  4.25, time: 24.80, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:245, Val_loss:  4.03, time: 25.36, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Epoch:154, Val_loss:  5.77, time: 16.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:244, Val_loss:  2.86, time: 24.39, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Epoch:153, Val_loss:  4.13, time: 15.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:243, Val_loss:  4.35, time: 27.72, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Epoch:152, Val_loss:  5.07, time: 24.30, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:242, Val_loss:  3.49, time: 18.89, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Epoch:151, Val_loss:  5.53, time: 28.93, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:241, Val_loss:  3.71, time: 26.81, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Epoch:150, Val_loss:  3.93, time: 22.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:240, Val_loss:  3.78, time: 21.17, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Epoch:149, Val_loss:  5.77, time: 24.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:239, Val_loss:  3.79, time: 23.12, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Epoch:148, Val_loss:  4.17, time: 23.09, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:238, Val_loss:  3.22, time: 25.96, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Epoch:147, Val_loss:  6.42, time: 18.33, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:237, Val_loss:  4.06, time: 25.89, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Epoch:146, Val_loss:  3.79, time: 18.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:236, Val_loss:  3.06, time: 25.42, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Epoch:145, Val_loss:  6.63, time: 21.08, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:235, Val_loss:  4.23, time: 18.22, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Epoch:144, Val_loss:  3.50, time: 24.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:234, Val_loss:  2.96, time: 19.54, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Epoch:143, Val_loss:  6.76, time: 21.25, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:233, Val_loss:  4.66, time: 22.62, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Epoch:142, Val_loss:  3.39, time: 21.25, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:232, Val_loss:  3.10, time: 24.23, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Epoch:141, Val_loss:  6.80, time: 21.95, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:231, Val_loss:  5.07, time: 22.91, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Epoch:140, Val_loss:  3.57, time: 22.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:230, Val_loss:  3.31, time: 21.49, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Epoch:139, Val_loss:  4.97, time: 21.24, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:229, Val_loss:  4.40, time: 19.42, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Epoch:138, Val_loss:  4.22, time: 21.54, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:228, Val_loss:  3.92, time: 21.95, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Epoch:137, Val_loss:  5.82, time: 17.81, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:227, Val_loss:  4.00, time: 16.95, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Epoch:136, Val_loss:  3.97, time: 19.56, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:226, Val_loss:  3.87, time: 21.21, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Epoch:135, Val_loss:  6.75, time: 19.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:225, Val_loss:  3.72, time: 25.04, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Epoch:134, Val_loss:  3.46, time: 25.33, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:224, Val_loss:  3.12, time: 22.02, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Epoch:133, Val_loss:  7.35, time: 22.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:223, Val_loss:  4.07, time: 25.69, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Epoch:132, Val_loss:  3.26, time: 20.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:222, Val_loss:  3.63, time: 22.12, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Epoch:131, Val_loss:  7.24, time: 21.98, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:221, Val_loss:  3.94, time: 21.63, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Epoch:130, Val_loss:  3.22, time: 29.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:220, Val_loss:  4.00, time: 19.61, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Epoch:129, Val_loss:  7.16, time: 24.70, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:219, Val_loss:  3.93, time: 24.25, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Epoch:128, Val_loss:  3.36, time: 19.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:218, Val_loss:  3.27, time: 27.17, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Epoch:127, Val_loss:  6.82, time: 25.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:217, Val_loss:  4.33, time: 22.13, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Epoch:126, Val_loss:  3.48, time: 20.34, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:216, Val_loss:  3.16, time: 20.56, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Epoch:125, Val_loss:  6.61, time: 23.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:215, Val_loss:  4.21, time: 22.15, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Epoch:124, Val_loss:  3.52, time: 26.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:214, Val_loss:  3.88, time: 24.13, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Epoch:123, Val_loss:  6.71, time: 22.36, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:213, Val_loss:  3.77, time: 19.47, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Epoch:122, Val_loss:  3.22, time: 28.09, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:212, Val_loss:  4.07, time: 22.25, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Epoch:121, Val_loss:  6.56, time: 22.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:211, Val_loss:  4.20, time: 20.49, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Epoch:120, Val_loss:  3.12, time: 31.96, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:210, Val_loss:  3.34, time: 17.93, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Epoch:119, Val_loss:  6.35, time: 27.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:209, Val_loss:  4.33, time: 23.36, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Epoch:118, Val_loss:  3.22, time: 18.42, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:208, Val_loss:  3.13, time: 20.34, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Epoch:117, Val_loss:  6.78, time: 19.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:207, Val_loss:  4.63, time: 27.29, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Epoch:116, Val_loss:  3.19, time: 20.63, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:206, Val_loss:  3.30, time: 22.05, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Epoch:115, Val_loss:  6.62, time: 17.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:205, Val_loss:  4.01, time: 19.09, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Epoch:114, Val_loss:  3.86, time: 19.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:204, Val_loss:  4.12, time: 20.10, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Epoch:113, Val_loss:  4.50, time: 21.44, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:203, Val_loss:  3.86, time: 17.46, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Epoch:112, Val_loss:  3.97, time: 19.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:202, Val_loss:  4.22, time: 19.21, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Epoch:111, Val_loss:  4.78, time: 22.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:201, Val_loss:  4.08, time: 20.20, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Epoch:110, Val_loss:  2.86, time: 27.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:200, Val_loss:  3.74, time: 17.28, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Epoch:109, Val_loss:  5.65, time: 16.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:199, Val_loss:  3.79, time: 17.82, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Epoch:108, Val_loss:  2.95, time: 20.62, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:198, Val_loss:  3.69, time: 24.16, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Epoch:107, Val_loss:  5.69, time: 16.80, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:197, Val_loss:  4.09, time: 19.05, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Epoch:106, Val_loss:  2.84, time: 15.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:196, Val_loss:  3.35, time: 19.57, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Epoch:105, Val_loss:  5.93, time: 22.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:195, Val_loss:  4.01, time: 18.47, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Epoch:104, Val_loss:  3.85, time: 29.94, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:194, Val_loss:  3.73, time: 19.40, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Epoch:103, Val_loss:  3.70, time: 25.79, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:193, Val_loss:  3.66, time: 24.42, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Epoch:102, Val_loss:  3.79, time: 26.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:192, Val_loss:  4.04, time: 20.87, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Epoch:101, Val_loss:  3.70, time: 24.12, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:191, Val_loss:  3.98, time: 22.68, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Epoch:100, Val_loss:  3.90, time: 22.50, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:190, Val_loss:  4.08, time: 20.40, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Epoch: 99, Val_loss:  3.63, time: 22.77, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:189, Val_loss:  3.80, time: 23.41, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Epoch: 98, Val_loss:  3.88, time: 18.65, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:188, Val_loss:  3.59, time: 23.35, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Epoch: 97, Val_loss:  3.63, time: 16.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:187, Val_loss:  4.17, time: 28.37, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Epoch: 96, Val_loss:  3.89, time: 23.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:186, Val_loss:  2.95, time: 21.48, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Epoch: 95, Val_loss:  3.64, time: 29.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:185, Val_loss:  4.36, time: 21.13, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Epoch: 94, Val_loss:  3.84, time: 31.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:184, Val_loss:  3.12, time: 30.91, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Epoch: 93, Val_loss:  3.68, time: 23.87, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:183, Val_loss:  4.48, time: 16.39, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Epoch: 92, Val_loss:  3.86, time: 27.36, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:182, Val_loss:  3.14, time: 26.15, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Epoch: 91, Val_loss:  3.62, time: 22.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:181, Val_loss:  4.47, time: 22.53, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Epoch: 90, Val_loss:  3.87, time: 22.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:180, Val_loss:  3.13, time: 22.62, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Epoch: 89, Val_loss:  3.63, time: 18.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:179, Val_loss:  4.52, time: 24.33, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Epoch: 88, Val_loss:  3.90, time: 23.50, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:178, Val_loss:  3.12, time: 22.50, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Epoch: 87, Val_loss:  3.65, time: 27.41, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:177, Val_loss:  4.44, time: 19.98, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Epoch: 86, Val_loss:  3.87, time: 23.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:176, Val_loss:  3.28, time: 21.71, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Epoch: 85, Val_loss:  3.64, time: 23.16, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:175, Val_loss:  4.53, time: 21.37, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Epoch: 84, Val_loss:  3.87, time: 19.30, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:174, Val_loss:  3.19, time: 28.94, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Epoch: 83, Val_loss:  3.65, time: 19.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:173, Val_loss:  4.51, time: 26.04, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Epoch: 82, Val_loss:  3.86, time: 24.09, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:172, Val_loss:  3.23, time: 22.12, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Epoch: 81, Val_loss:  3.65, time: 19.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:171, Val_loss:  4.20, time: 21.54, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Epoch: 80, Val_loss:  3.77, time: 25.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:170, Val_loss:  3.18, time: 19.65, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Epoch: 79, Val_loss:  3.69, time: 18.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:169, Val_loss:  4.17, time: 27.53, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Epoch: 78, Val_loss:  3.79, time: 23.51, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:168, Val_loss:  3.03, time: 21.79, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Epoch: 77, Val_loss:  3.72, time: 18.15, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:167, Val_loss:  4.12, time: 20.47, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Epoch: 76, Val_loss:  3.78, time: 27.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:166, Val_loss:  3.02, time: 22.87, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Epoch: 75, Val_loss:  3.74, time: 24.26, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:165, Val_loss:  4.28, time: 21.30, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Epoch: 74, Val_loss:  3.78, time: 24.80, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:164, Val_loss:  2.97, time: 29.84, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Epoch: 73, Val_loss:  3.66, time: 27.83, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:163, Val_loss:  4.15, time: 26.69, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Epoch: 72, Val_loss:  3.78, time: 21.08, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:162, Val_loss:  2.95, time: 20.59, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Epoch: 71, Val_loss:  3.64, time: 24.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:161, Val_loss:  4.35, time: 26.44, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Epoch: 70, Val_loss:  3.79, time: 21.91, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:160, Val_loss:  3.21, time: 30.04, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Epoch: 69, Val_loss:  3.59, time: 28.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:159, Val_loss:  3.74, time: 23.76, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Epoch: 68, Val_loss:  3.71, time: 22.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:158, Val_loss:  3.47, time: 28.41, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Epoch: 67, Val_loss:  3.55, time: 21.88, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:157, Val_loss:  3.76, time: 30.41, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Epoch: 66, Val_loss:  3.68, time: 24.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:156, Val_loss:  3.39, time: 20.80, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Epoch: 65, Val_loss:  3.52, time: 27.97, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:155, Val_loss:  3.94, time: 23.82, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Epoch: 64, Val_loss:  3.70, time: 18.57, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:154, Val_loss:  3.62, time: 28.07, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Epoch: 63, Val_loss:  3.51, time: 22.94, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:153, Val_loss:  3.64, time: 32.97, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Epoch: 62, Val_loss:  3.72, time: 31.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:152, Val_loss:  3.85, time: 24.92, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Epoch: 61, Val_loss:  3.52, time: 32.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:151, Val_loss:  4.10, time: 21.08, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Epoch: 60, Val_loss:  3.74, time: 29.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:150, Val_loss:  3.28, time: 21.49, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Epoch: 59, Val_loss:  3.57, time: 30.66, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:149, Val_loss:  4.25, time: 22.32, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Epoch: 58, Val_loss:  3.72, time: 22.22, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:148, Val_loss:  3.08, time: 19.41, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Epoch: 57, Val_loss:  3.52, time: 30.93, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:147, Val_loss:  4.36, time: 25.78, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Epoch: 56, Val_loss:  3.67, time: 25.57, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:146, Val_loss:  3.25, time: 20.46, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Epoch: 55, Val_loss:  3.50, time: 22.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:145, Val_loss:  4.09, time: 21.83, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Epoch: 54, Val_loss:  3.63, time: 22.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:144, Val_loss:  3.16, time: 20.70, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Epoch: 53, Val_loss:  3.49, time: 24.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:143, Val_loss:  4.03, time: 17.85, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Epoch: 52, Val_loss:  3.62, time: 20.30, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:142, Val_loss:  3.41, time: 18.70, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Epoch: 51, Val_loss:  3.47, time: 20.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:141, Val_loss:  4.15, time: 20.14, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Epoch: 50, Val_loss:  3.57, time: 27.60, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:140, Val_loss:  3.54, time: 23.69, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Epoch: 49, Val_loss:  3.47, time: 27.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:139, Val_loss:  3.98, time: 23.09, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Epoch: 48, Val_loss:  3.53, time: 26.54, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:138, Val_loss:  3.69, time: 23.42, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Epoch: 47, Val_loss:  3.51, time: 18.95, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:137, Val_loss:  4.38, time: 23.54, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Epoch: 46, Val_loss:  3.51, time: 16.94, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:136, Val_loss:  3.92, time: 21.99, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Epoch: 45, Val_loss:  3.50, time: 20.44, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:135, Val_loss:  4.54, time: 26.39, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Epoch: 44, Val_loss:  3.45, time: 22.65, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:134, Val_loss:  3.58, time: 23.81, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Epoch: 43, Val_loss:  3.49, time: 22.53, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:133, Val_loss:  4.73, time: 22.59, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Epoch: 42, Val_loss:  3.51, time: 25.22, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:132, Val_loss:  3.86, time: 15.92, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Epoch: 41, Val_loss:  3.49, time: 26.41, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:131, Val_loss:  4.50, time: 22.68, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Epoch: 40, Val_loss:  3.58, time: 29.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:130, Val_loss:  3.81, time: 22.65, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Epoch: 39, Val_loss:  3.40, time: 25.86, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:129, Val_loss:  4.29, time: 19.42, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Epoch: 38, Val_loss:  3.53, time: 26.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:128, Val_loss:  3.78, time: 20.33, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Epoch: 37, Val_loss:  3.47, time: 19.15, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:127, Val_loss:  4.37, time: 22.32, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Epoch: 36, Val_loss:  3.53, time: 19.04, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:126, Val_loss:  3.80, time: 22.97, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Epoch: 35, Val_loss:  3.51, time: 24.95, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:125, Val_loss:  4.10, time: 27.43, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Epoch: 34, Val_loss:  3.57, time: 16.61, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:124, Val_loss:  3.83, time: 17.27, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Epoch: 33, Val_loss:  3.45, time: 20.63, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:123, Val_loss:  4.10, time: 21.87, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Epoch: 32, Val_loss:  3.50, time: 26.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:122, Val_loss:  3.53, time: 24.19, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Epoch: 31, Val_loss:  3.43, time: 28.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:121, Val_loss:  3.92, time: 26.32, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Epoch: 30, Val_loss:  3.55, time: 21.41, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:120, Val_loss:  3.63, time: 20.36, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Epoch: 29, Val_loss:  3.40, time: 31.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:119, Val_loss:  3.86, time: 19.68, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Epoch: 28, Val_loss:  3.49, time: 21.87, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:118, Val_loss:  3.60, time: 18.67, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Epoch: 27, Val_loss:  3.38, time: 22.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:117, Val_loss:  3.78, time: 23.40, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Epoch: 26, Val_loss:  3.50, time: 21.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:116, Val_loss:  3.87, time: 20.90, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Epoch: 25, Val_loss:  3.35, time: 27.01, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:115, Val_loss:  3.47, time: 20.80, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Epoch: 24, Val_loss:  3.48, time: 19.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:114, Val_loss:  3.92, time: 25.38, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Epoch: 23, Val_loss:  3.33, time: 25.35, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:113, Val_loss:  3.24, time: 24.27, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Epoch: 22, Val_loss:  3.38, time: 27.77, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:112, Val_loss:  3.64, time: 26.13, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Epoch: 21, Val_loss:  3.29, time: 28.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:111, Val_loss:  2.71, time: 22.27, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Epoch: 20, Val_loss:  3.32, time: 23.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:110, Val_loss:  3.82, time: 28.87, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Epoch: 19, Val_loss:  3.28, time: 21.34, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:109, Val_loss:  2.63, time: 20.58, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Epoch: 18, Val_loss:  3.28, time: 27.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:108, Val_loss:  3.91, time: 24.95, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Epoch: 17, Val_loss:  3.27, time: 23.87, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:107, Val_loss:  2.91, time: 25.64, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Epoch: 16, Val_loss:  3.22, time: 26.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:106, Val_loss:  2.86, time: 29.98, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Epoch: 15, Val_loss:  3.18, time: 21.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:105, Val_loss:  2.94, time: 24.67, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Epoch: 14, Val_loss:  3.13, time: 26.80, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:104, Val_loss:  2.87, time: 21.28, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Epoch: 13, Val_loss:  3.07, time: 21.25, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:103, Val_loss:  2.86, time: 27.50, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Epoch: 12, Val_loss:  3.10, time: 24.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:102, Val_loss:  2.84, time: 26.24, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Epoch: 11, Val_loss:  3.00, time: 21.56, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:101, Val_loss:  2.88, time: 28.72, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Epoch: 10, Val_loss:  3.01, time: 17.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch:100, Val_loss:  2.79, time: 21.15, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Epoch:  9, Val_loss:  2.93, time: 19.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch: 99, Val_loss:  2.87, time: 22.73, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Epoch:  8, Val_loss:  2.92, time: 21.90, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch: 98, Val_loss:  2.77, time: 23.83, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Epoch:  7, Val_loss:  2.92, time: 21.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch: 97, Val_loss:  2.85, time: 27.35, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Epoch:  6, Val_loss:  2.93, time: 21.16, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch: 96, Val_loss:  2.78, time: 25.31, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Epoch:  5, Val_loss:  2.97, time: 36.39, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+          <t>Epoch: 95, Val_loss:  2.86, time: 24.88, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Epoch:  4, Val_loss:  3.03, time: 40.68, test_Acc:  37.50, test_bacc:  33.98, test_f1:  26.19</t>
+          <t>Epoch: 94, Val_loss:  2.77, time: 17.88, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  3.08, time: 31.00, test_Acc:  37.50, test_bacc:  33.98, test_f1:  26.19</t>
+          <t>Epoch: 93, Val_loss:  2.85, time: 22.32, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  3.19, time: 28.39, test_Acc:  37.72, test_bacc:  34.30, test_f1:  26.59</t>
+          <t>Epoch: 92, Val_loss:  2.77, time: 25.41, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  3.30, time: 43.28, test_Acc:  37.72, test_bacc:  34.30, test_f1:  26.59</t>
+          <t>Epoch: 91, Val_loss:  2.83, time: 24.43, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Epoch:  0, Val_loss:  3.45, time: 33.77, test_Acc:  37.72, test_bacc:  34.30, test_f1:  26.59</t>
+          <t>Epoch: 90, Val_loss:  2.75, time: 29.07, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch: 89, Val_loss:  2.84, time: 23.27, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch: 88, Val_loss:  2.76, time: 24.42, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch: 87, Val_loss:  2.82, time: 20.02, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch: 86, Val_loss:  2.77, time: 21.60, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch: 85, Val_loss:  2.76, time: 25.61, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch: 84, Val_loss:  2.73, time: 19.20, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch: 83, Val_loss:  2.75, time: 19.90, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch: 82, Val_loss:  2.67, time: 26.96, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch: 81, Val_loss:  2.70, time: 20.69, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch: 80, Val_loss:  2.65, time: 19.16, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch: 79, Val_loss:  2.72, time: 23.91, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch: 78, Val_loss:  2.66, time: 21.83, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch: 77, Val_loss:  2.72, time: 26.32, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch: 76, Val_loss:  2.65, time: 25.24, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch: 75, Val_loss:  2.70, time: 22.00, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch: 74, Val_loss:  2.61, time: 28.30, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch: 73, Val_loss:  2.64, time: 24.78, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch: 72, Val_loss:  2.59, time: 28.82, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch: 71, Val_loss:  2.63, time: 22.60, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch: 70, Val_loss:  2.58, time: 27.50, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch: 69, Val_loss:  2.65, time: 20.13, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch: 68, Val_loss:  2.57, time: 23.91, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch: 67, Val_loss:  2.65, time: 27.49, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch: 66, Val_loss:  2.60, time: 25.43, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch: 65, Val_loss:  2.62, time: 22.91, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch: 64, Val_loss:  2.59, time: 22.42, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Epoch: 63, Val_loss:  2.56, time: 22.55, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Epoch: 62, Val_loss:  2.63, time: 27.82, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Epoch: 61, Val_loss:  2.59, time: 26.11, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Epoch: 60, Val_loss:  2.53, time: 26.30, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Epoch: 59, Val_loss:  2.55, time: 19.86, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Epoch: 58, Val_loss:  2.55, time: 22.24, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Epoch: 57, Val_loss:  2.50, time: 21.31, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Epoch: 56, Val_loss:  2.53, time: 25.11, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epoch: 55, Val_loss:  2.49, time: 23.97, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epoch: 54, Val_loss:  2.56, time: 24.67, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Epoch: 53, Val_loss:  2.49, time: 22.18, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Epoch: 52, Val_loss:  2.56, time: 23.76, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epoch: 51, Val_loss:  2.51, time: 18.69, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epoch: 50, Val_loss:  2.58, time: 24.50, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Epoch: 49, Val_loss:  2.51, time: 26.25, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Epoch: 48, Val_loss:  2.57, time: 18.50, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epoch: 47, Val_loss:  2.51, time: 20.76, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epoch: 46, Val_loss:  2.59, time: 21.73, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Epoch: 45, Val_loss:  2.54, time: 29.25, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Epoch: 44, Val_loss:  2.52, time: 25.88, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch: 43, Val_loss:  2.51, time: 19.11, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch: 42, Val_loss:  2.48, time: 19.05, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch: 41, Val_loss:  2.54, time: 27.37, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch: 40, Val_loss:  2.54, time: 27.15, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch: 39, Val_loss:  2.56, time: 18.76, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch: 38, Val_loss:  2.51, time: 28.28, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch: 37, Val_loss:  2.48, time: 17.86, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch: 36, Val_loss:  2.50, time: 23.90, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch: 35, Val_loss:  2.51, time: 21.62, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch: 34, Val_loss:  2.50, time: 24.62, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch: 33, Val_loss:  2.49, time: 22.45, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch: 32, Val_loss:  2.50, time: 28.96, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch: 31, Val_loss:  2.48, time: 24.17, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch: 30, Val_loss:  2.50, time: 29.69, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch: 29, Val_loss:  2.48, time: 25.73, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch: 28, Val_loss:  2.44, time: 25.39, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch: 27, Val_loss:  2.45, time: 26.05, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch: 26, Val_loss:  2.45, time: 24.13, test_Acc:  29.39, test_bacc:  26.99, test_f1:  16.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch: 25, Val_loss:  2.48, time: 24.66, test_Acc:  29.39, test_bacc:  26.86, test_f1:  16.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch: 24, Val_loss:  2.46, time: 20.36, test_Acc:  29.39, test_bacc:  26.86, test_f1:  16.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch: 23, Val_loss:  2.49, time: 19.09, test_Acc:  29.39, test_bacc:  26.86, test_f1:  16.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch: 22, Val_loss:  2.51, time: 19.78, test_Acc:  29.39, test_bacc:  26.86, test_f1:  16.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch: 21, Val_loss:  2.48, time: 25.59, test_Acc:  29.39, test_bacc:  26.86, test_f1:  16.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch: 20, Val_loss:  2.48, time: 28.55, test_Acc:  29.39, test_bacc:  26.86, test_f1:  16.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch: 19, Val_loss:  2.48, time: 26.91, test_Acc:  28.73, test_bacc:  26.33, test_f1:  16.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch: 18, Val_loss:  2.48, time: 23.59, test_Acc:  28.73, test_bacc:  26.33, test_f1:  16.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch: 17, Val_loss:  2.46, time: 27.93, test_Acc:  28.73, test_bacc:  26.33, test_f1:  16.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch: 16, Val_loss:  2.49, time: 21.51, test_Acc:  29.82, test_bacc:  27.20, test_f1:  16.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch: 15, Val_loss:  2.49, time: 25.79, test_Acc:  29.82, test_bacc:  27.20, test_f1:  16.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch: 14, Val_loss:  2.53, time: 29.05, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch: 13, Val_loss:  2.52, time: 23.22, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch: 12, Val_loss:  2.56, time: 24.46, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch: 11, Val_loss:  2.58, time: 19.90, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch: 10, Val_loss:  2.65, time: 25.05, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch:  9, Val_loss:  2.67, time: 25.42, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch:  8, Val_loss:  2.74, time: 26.56, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch:  7, Val_loss:  2.81, time: 28.22, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch:  6, Val_loss:  2.90, time: 20.19, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch:  5, Val_loss:  2.99, time: 44.61, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch:  4, Val_loss:  3.04, time: 45.32, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch:  3, Val_loss:  3.16, time: 33.43, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  3.36, time: 40.71, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  3.56, time: 42.17, test_Acc:  28.07, test_bacc:  25.19, test_f1:  14.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch:  0, Val_loss:  3.79, time: 40.73, test_Acc:  27.19, test_bacc:  24.30, test_f1:  13.91</t>
         </is>
       </c>
     </row>
@@ -28208,7 +28921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28219,56 +28932,3528 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Split_Output</t>
+          <t>Epoch_Output</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>split:   6, val_loss:   5.36, test_Acc:  34.65, test_bacc:  35.72, test_f1:  30.96</t>
+          <t>Epoch:502, Val_loss:  4.30, time: 19.86, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>split:   5, val_loss:  10.57, test_Acc:  39.69, test_bacc:  34.19, test_f1:  27.63</t>
+          <t>Epoch:501, Val_loss:  3.60, time: 28.85, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>split:   4, val_loss:   6.18, test_Acc:  43.42, test_bacc:  39.93, test_f1:  36.93</t>
+          <t>Epoch:500, Val_loss:  4.15, time: 22.15, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>split:   3, val_loss:   6.94, test_Acc:  38.60, test_bacc:  37.09, test_f1:  30.13</t>
+          <t>Epoch:499, Val_loss:  3.83, time: 24.76, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>split:   2, val_loss:   8.18, test_Acc:  38.82, test_bacc:  37.36, test_f1:  34.51</t>
+          <t>Epoch:498, Val_loss:  3.97, time: 17.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>split:   1, val_loss:  10.36, test_Acc:  41.01, test_bacc:  40.39, test_f1:  32.38</t>
+          <t>Epoch:497, Val_loss:  3.60, time: 19.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>split:   0, val_loss:   3.86, test_Acc:  35.53, test_bacc:  34.59, test_f1:  24.67</t>
+          <t>Epoch:496, Val_loss:  3.93, time: 26.79, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:495, Val_loss:  5.00, time: 21.17, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:494, Val_loss:  3.39, time: 27.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:493, Val_loss:  4.64, time: 23.94, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epoch:492, Val_loss:  3.73, time: 24.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Epoch:491, Val_loss:  3.95, time: 21.51, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:490, Val_loss:  4.01, time: 25.77, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:489, Val_loss:  3.79, time: 17.54, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:488, Val_loss:  4.02, time: 24.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:487, Val_loss:  3.77, time: 23.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:486, Val_loss:  4.04, time: 21.38, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:485, Val_loss:  3.76, time: 24.52, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:484, Val_loss:  4.08, time: 20.18, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epoch:483, Val_loss:  3.82, time: 18.38, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:482, Val_loss:  4.08, time: 23.96, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:481, Val_loss:  3.78, time: 23.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:480, Val_loss:  4.04, time: 20.39, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:479, Val_loss:  3.74, time: 22.56, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:478, Val_loss:  4.15, time: 21.93, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:477, Val_loss:  3.82, time: 18.98, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:476, Val_loss:  3.97, time: 22.79, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:475, Val_loss:  3.71, time: 21.30, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:474, Val_loss:  3.96, time: 22.02, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:473, Val_loss:  3.64, time: 21.96, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:472, Val_loss:  3.84, time: 24.09, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:471, Val_loss:  4.00, time: 20.09, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:470, Val_loss:  3.55, time: 21.96, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:469, Val_loss:  4.90, time: 23.55, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:468, Val_loss:  3.33, time: 27.45, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:467, Val_loss:  4.84, time: 29.76, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:466, Val_loss:  3.74, time: 21.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epoch:465, Val_loss:  3.55, time: 22.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epoch:464, Val_loss:  4.09, time: 25.82, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epoch:463, Val_loss:  3.51, time: 23.10, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epoch:462, Val_loss:  4.16, time: 23.45, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Epoch:461, Val_loss:  3.26, time: 25.89, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Epoch:460, Val_loss:  4.05, time: 24.99, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Epoch:459, Val_loss:  3.45, time: 22.97, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Epoch:458, Val_loss:  3.96, time: 28.25, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Epoch:457, Val_loss:  3.28, time: 28.07, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epoch:456, Val_loss:  4.01, time: 20.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Epoch:455, Val_loss:  4.89, time: 26.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Epoch:454, Val_loss:  3.44, time: 25.26, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Epoch:453, Val_loss:  4.58, time: 18.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Epoch:452, Val_loss:  3.41, time: 22.18, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Epoch:451, Val_loss:  5.09, time: 31.51, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Epoch:450, Val_loss:  3.81, time: 24.29, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:449, Val_loss:  3.26, time: 22.38, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:448, Val_loss:  4.47, time: 18.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:447, Val_loss:  3.34, time: 16.87, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:446, Val_loss:  4.62, time: 21.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:445, Val_loss:  3.61, time: 36.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:444, Val_loss:  4.29, time: 23.18, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:443, Val_loss:  3.62, time: 22.96, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:442, Val_loss:  4.24, time: 20.56, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:441, Val_loss:  3.65, time: 22.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:440, Val_loss:  4.32, time: 20.87, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:439, Val_loss:  3.64, time: 25.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:438, Val_loss:  4.34, time: 22.70, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:437, Val_loss:  3.69, time: 27.33, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:436, Val_loss:  4.26, time: 18.08, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:435, Val_loss:  3.72, time: 21.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:434, Val_loss:  4.35, time: 22.59, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:433, Val_loss:  3.94, time: 24.25, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:432, Val_loss:  3.98, time: 29.40, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:431, Val_loss:  4.10, time: 19.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:430, Val_loss:  3.68, time: 19.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:429, Val_loss:  4.39, time: 25.42, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:428, Val_loss:  3.51, time: 19.17, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:427, Val_loss:  4.70, time: 23.84, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:426, Val_loss:  4.11, time: 24.08, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:425, Val_loss:  3.42, time: 21.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:424, Val_loss:  4.51, time: 26.86, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:423, Val_loss:  3.44, time: 23.25, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epoch:422, Val_loss:  4.37, time: 24.88, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Epoch:421, Val_loss:  3.32, time: 24.35, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Epoch:420, Val_loss:  4.54, time: 22.33, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Epoch:419, Val_loss:  3.51, time: 25.34, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Epoch:418, Val_loss:  4.34, time: 20.02, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Epoch:417, Val_loss:  3.72, time: 23.83, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Epoch:416, Val_loss:  4.21, time: 21.84, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Epoch:415, Val_loss:  3.59, time: 21.35, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:414, Val_loss:  4.29, time: 23.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:413, Val_loss:  3.47, time: 22.85, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:412, Val_loss:  4.56, time: 26.31, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:411, Val_loss:  3.93, time: 24.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:410, Val_loss:  3.92, time: 23.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:409, Val_loss:  4.69, time: 22.31, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:408, Val_loss:  3.67, time: 19.55, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:407, Val_loss:  5.16, time: 23.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:406, Val_loss:  3.55, time: 21.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:405, Val_loss:  5.39, time: 19.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:404, Val_loss:  4.01, time: 31.80, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:403, Val_loss:  3.73, time: 20.52, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:402, Val_loss:  4.37, time: 25.54, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:401, Val_loss:  3.72, time: 25.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:400, Val_loss:  4.43, time: 24.62, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:399, Val_loss:  3.86, time: 26.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:398, Val_loss:  4.28, time: 26.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:397, Val_loss:  3.69, time: 22.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:396, Val_loss:  4.39, time: 23.55, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:395, Val_loss:  3.70, time: 28.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:394, Val_loss:  4.36, time: 20.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:393, Val_loss:  3.70, time: 26.79, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:392, Val_loss:  4.40, time: 25.04, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:391, Val_loss:  3.44, time: 19.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:390, Val_loss:  4.45, time: 20.93, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:389, Val_loss:  3.40, time: 22.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:388, Val_loss:  4.53, time: 22.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:387, Val_loss:  3.43, time: 20.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:386, Val_loss:  4.53, time: 22.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:385, Val_loss:  3.73, time: 22.32, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:384, Val_loss:  4.42, time: 21.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:383, Val_loss:  4.00, time: 24.98, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:382, Val_loss:  4.42, time: 23.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:381, Val_loss:  3.36, time: 18.63, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:380, Val_loss:  4.56, time: 25.46, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:379, Val_loss:  3.75, time: 30.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:378, Val_loss:  4.42, time: 20.86, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:377, Val_loss:  3.72, time: 22.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:376, Val_loss:  4.49, time: 24.77, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:375, Val_loss:  3.39, time: 27.39, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:374, Val_loss:  4.33, time: 24.02, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:373, Val_loss:  3.27, time: 25.41, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:372, Val_loss:  4.34, time: 26.70, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:371, Val_loss:  3.61, time: 26.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:370, Val_loss:  4.38, time: 23.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:369, Val_loss:  4.02, time: 28.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:368, Val_loss:  3.75, time: 25.49, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:367, Val_loss:  3.91, time: 25.59, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:366, Val_loss:  4.15, time: 25.86, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:365, Val_loss:  5.09, time: 24.65, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:364, Val_loss:  3.94, time: 20.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:363, Val_loss:  5.33, time: 21.54, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:362, Val_loss:  4.07, time: 19.44, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:361, Val_loss:  3.80, time: 28.83, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:360, Val_loss:  4.91, time: 25.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:359, Val_loss:  3.55, time: 23.66, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:358, Val_loss:  4.77, time: 19.51, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:357, Val_loss:  3.61, time: 21.17, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:356, Val_loss:  4.76, time: 15.52, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:355, Val_loss:  3.61, time: 19.57, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:354, Val_loss:  4.81, time: 26.84, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:353, Val_loss:  3.66, time: 23.52, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:352, Val_loss:  4.62, time: 23.53, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:351, Val_loss:  3.68, time: 17.07, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:350, Val_loss:  4.73, time: 19.24, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:349, Val_loss:  3.72, time: 25.09, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:348, Val_loss:  4.85, time: 20.89, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:347, Val_loss:  3.61, time: 20.62, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:346, Val_loss:  4.88, time: 22.99, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:345, Val_loss:  3.66, time: 20.97, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:344, Val_loss:  4.82, time: 23.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:343, Val_loss:  4.22, time: 18.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:342, Val_loss:  3.78, time: 28.52, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:341, Val_loss:  5.11, time: 24.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:340, Val_loss:  4.57, time: 26.93, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:339, Val_loss:  3.64, time: 22.40, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:338, Val_loss:  4.87, time: 20.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:337, Val_loss:  3.63, time: 18.66, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:336, Val_loss:  4.80, time: 23.87, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:335, Val_loss:  3.53, time: 25.04, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:334, Val_loss:  4.85, time: 24.36, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:333, Val_loss:  3.60, time: 19.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:332, Val_loss:  4.63, time: 23.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:331, Val_loss:  3.51, time: 22.93, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:330, Val_loss:  4.81, time: 22.96, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:329, Val_loss:  3.52, time: 25.77, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:328, Val_loss:  4.89, time: 20.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:327, Val_loss:  3.54, time: 29.89, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:326, Val_loss:  4.80, time: 25.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:325, Val_loss:  3.51, time: 23.85, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:324, Val_loss:  4.94, time: 28.17, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:323, Val_loss:  3.45, time: 27.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:322, Val_loss:  4.93, time: 28.94, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:321, Val_loss:  3.46, time: 26.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:320, Val_loss:  4.91, time: 21.83, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:319, Val_loss:  3.43, time: 27.15, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:318, Val_loss:  4.86, time: 23.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:317, Val_loss:  3.43, time: 23.85, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:316, Val_loss:  4.86, time: 25.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:315, Val_loss:  3.43, time: 20.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:314, Val_loss:  4.84, time: 25.83, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:313, Val_loss:  3.43, time: 21.20, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:312, Val_loss:  4.89, time: 20.57, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:311, Val_loss:  3.42, time: 21.12, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:310, Val_loss:  4.93, time: 19.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:309, Val_loss:  3.43, time: 26.65, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Epoch:308, Val_loss:  4.93, time: 24.18, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Epoch:307, Val_loss:  3.43, time: 20.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Epoch:306, Val_loss:  4.90, time: 22.10, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Epoch:305, Val_loss:  3.44, time: 23.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Epoch:304, Val_loss:  4.93, time: 22.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Epoch:303, Val_loss:  3.43, time: 20.87, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Epoch:302, Val_loss:  4.94, time: 14.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Epoch:301, Val_loss:  3.54, time: 16.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Epoch:300, Val_loss:  4.98, time: 20.59, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Epoch:299, Val_loss:  3.55, time: 13.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Epoch:298, Val_loss:  4.95, time: 22.83, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Epoch:297, Val_loss:  3.48, time: 21.40, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Epoch:296, Val_loss:  5.01, time: 24.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Epoch:295, Val_loss:  3.47, time: 18.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Epoch:294, Val_loss:  5.04, time: 20.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Epoch:293, Val_loss:  3.47, time: 15.91, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Epoch:292, Val_loss:  5.00, time: 16.79, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Epoch:291, Val_loss:  3.51, time: 23.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Epoch:290, Val_loss:  5.07, time: 17.97, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Epoch:289, Val_loss:  3.50, time: 16.97, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Epoch:288, Val_loss:  5.08, time: 18.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Epoch:287, Val_loss:  3.57, time: 18.47, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Epoch:286, Val_loss:  5.18, time: 20.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Epoch:285, Val_loss:  3.54, time: 20.42, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epoch:284, Val_loss:  5.15, time: 20.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epoch:283, Val_loss:  3.72, time: 22.49, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Epoch:282, Val_loss:  5.29, time: 19.35, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Epoch:281, Val_loss:  3.63, time: 23.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Epoch:280, Val_loss:  5.36, time: 21.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Epoch:279, Val_loss:  3.70, time: 19.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Epoch:278, Val_loss:  5.38, time: 22.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Epoch:277, Val_loss:  3.77, time: 19.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Epoch:276, Val_loss:  5.46, time: 22.15, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Epoch:275, Val_loss:  3.73, time: 19.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Epoch:274, Val_loss:  5.59, time: 24.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Epoch:273, Val_loss:  3.75, time: 15.82, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Epoch:272, Val_loss:  5.54, time: 23.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Epoch:271, Val_loss:  3.69, time: 15.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Epoch:270, Val_loss:  5.52, time: 18.16, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Epoch:269, Val_loss:  3.72, time: 19.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Epoch:268, Val_loss:  5.62, time: 20.34, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Epoch:267, Val_loss:  3.84, time: 16.81, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Epoch:266, Val_loss:  5.83, time: 19.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Epoch:265, Val_loss:  3.98, time: 18.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Epoch:264, Val_loss:  6.05, time: 19.01, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epoch:263, Val_loss:  4.06, time: 20.24, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epoch:262, Val_loss:  6.36, time: 20.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Epoch:261, Val_loss:  4.26, time: 24.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Epoch:260, Val_loss:  6.35, time: 23.91, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epoch:259, Val_loss:  4.23, time: 24.99, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epoch:258, Val_loss:  4.97, time: 16.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Epoch:257, Val_loss:  5.94, time: 17.93, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Epoch:256, Val_loss:  4.75, time: 17.36, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epoch:255, Val_loss:  5.99, time: 20.47, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epoch:254, Val_loss:  4.83, time: 15.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Epoch:253, Val_loss:  5.76, time: 23.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Epoch:252, Val_loss:  4.72, time: 17.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epoch:251, Val_loss:  6.07, time: 20.53, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epoch:250, Val_loss:  4.36, time: 15.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Epoch:249, Val_loss:  5.69, time: 16.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Epoch:248, Val_loss:  5.29, time: 23.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epoch:247, Val_loss:  4.14, time: 18.02, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epoch:246, Val_loss:  6.19, time: 17.69, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Epoch:245, Val_loss:  3.92, time: 18.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Epoch:244, Val_loss:  5.66, time: 22.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epoch:243, Val_loss:  3.54, time: 18.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epoch:242, Val_loss:  5.73, time: 19.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Epoch:241, Val_loss:  3.78, time: 20.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Epoch:240, Val_loss:  5.16, time: 20.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epoch:239, Val_loss:  3.56, time: 23.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epoch:238, Val_loss:  5.31, time: 18.50, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Epoch:237, Val_loss:  3.49, time: 20.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Epoch:236, Val_loss:  5.38, time: 22.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epoch:235, Val_loss:  3.67, time: 23.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epoch:234, Val_loss:  5.23, time: 19.81, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Epoch:233, Val_loss:  4.04, time: 22.54, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Epoch:232, Val_loss:  6.11, time: 16.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epoch:231, Val_loss:  4.05, time: 17.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epoch:230, Val_loss:  6.10, time: 15.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch:229, Val_loss:  4.09, time: 17.47, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch:228, Val_loss:  6.22, time: 17.04, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch:227, Val_loss:  4.81, time: 19.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch:226, Val_loss:  4.68, time: 20.10, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch:225, Val_loss:  5.36, time: 17.61, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch:224, Val_loss:  4.36, time: 19.59, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch:223, Val_loss:  5.92, time: 18.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch:222, Val_loss:  4.10, time: 18.69, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch:221, Val_loss:  6.53, time: 20.44, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch:220, Val_loss:  4.93, time: 20.47, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch:219, Val_loss:  3.96, time: 16.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch:218, Val_loss:  5.70, time: 15.55, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch:217, Val_loss:  3.67, time: 15.60, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch:216, Val_loss:  5.78, time: 18.44, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch:215, Val_loss:  3.66, time: 16.46, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch:214, Val_loss:  5.77, time: 22.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch:213, Val_loss:  3.66, time: 28.08, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch:212, Val_loss:  5.79, time: 18.70, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch:211, Val_loss:  3.87, time: 20.79, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch:210, Val_loss:  5.71, time: 20.38, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch:209, Val_loss:  3.66, time: 16.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch:208, Val_loss:  5.83, time: 22.82, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch:207, Val_loss:  3.70, time: 25.12, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch:206, Val_loss:  5.80, time: 20.89, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch:205, Val_loss:  3.89, time: 16.50, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch:204, Val_loss:  5.93, time: 15.78, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch:203, Val_loss:  4.29, time: 23.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch:202, Val_loss:  5.33, time: 23.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch:201, Val_loss:  4.86, time: 20.66, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch:200, Val_loss:  5.48, time: 21.90, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch:199, Val_loss:  3.73, time: 16.84, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch:198, Val_loss:  6.02, time: 18.15, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch:197, Val_loss:  3.88, time: 18.39, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch:196, Val_loss:  6.12, time: 20.82, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Epoch:195, Val_loss:  4.82, time: 20.39, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Epoch:194, Val_loss:  4.52, time: 21.55, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Epoch:193, Val_loss:  3.76, time: 18.83, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Epoch:192, Val_loss:  5.78, time: 24.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Epoch:191, Val_loss:  3.65, time: 15.66, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Epoch:190, Val_loss:  5.88, time: 16.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Epoch:189, Val_loss:  3.65, time: 18.42, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Epoch:188, Val_loss:  5.74, time: 21.94, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epoch:187, Val_loss:  3.71, time: 21.66, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epoch:186, Val_loss:  5.88, time: 16.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Epoch:185, Val_loss:  3.64, time: 19.76, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Epoch:184, Val_loss:  5.86, time: 22.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epoch:183, Val_loss:  3.71, time: 18.40, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epoch:182, Val_loss:  5.21, time: 26.32, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Epoch:181, Val_loss:  3.37, time: 19.22, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Epoch:180, Val_loss:  5.32, time: 20.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epoch:179, Val_loss:  3.46, time: 21.32, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epoch:178, Val_loss:  5.07, time: 24.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Epoch:177, Val_loss:  4.54, time: 20.20, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Epoch:176, Val_loss:  6.37, time: 16.78, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch:175, Val_loss:  4.75, time: 21.16, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch:174, Val_loss:  4.78, time: 25.89, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch:173, Val_loss:  3.56, time: 19.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch:172, Val_loss:  5.34, time: 20.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch:171, Val_loss:  5.30, time: 18.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch:170, Val_loss:  4.42, time: 23.04, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch:169, Val_loss:  5.11, time: 23.45, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch:168, Val_loss:  4.34, time: 17.99, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch:167, Val_loss:  6.18, time: 22.59, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch:166, Val_loss:  4.17, time: 19.70, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch:165, Val_loss:  6.75, time: 16.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch:164, Val_loss:  4.24, time: 27.22, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch:163, Val_loss:  7.09, time: 22.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch:162, Val_loss:  5.74, time: 21.60, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch:161, Val_loss:  4.59, time: 21.08, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch:160, Val_loss:  6.12, time: 21.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch:159, Val_loss:  4.70, time: 20.86, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch:158, Val_loss:  6.12, time: 24.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch:157, Val_loss:  4.04, time: 21.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch:156, Val_loss:  6.43, time: 25.90, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch:155, Val_loss:  4.25, time: 24.80, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch:154, Val_loss:  5.77, time: 16.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch:153, Val_loss:  4.13, time: 15.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch:152, Val_loss:  5.07, time: 24.30, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch:151, Val_loss:  5.53, time: 28.93, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch:150, Val_loss:  3.93, time: 22.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch:149, Val_loss:  5.77, time: 24.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch:148, Val_loss:  4.17, time: 23.09, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch:147, Val_loss:  6.42, time: 18.33, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch:146, Val_loss:  3.79, time: 18.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch:145, Val_loss:  6.63, time: 21.08, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch:144, Val_loss:  3.50, time: 24.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch:143, Val_loss:  6.76, time: 21.25, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch:142, Val_loss:  3.39, time: 21.25, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch:141, Val_loss:  6.80, time: 21.95, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch:140, Val_loss:  3.57, time: 22.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch:139, Val_loss:  4.97, time: 21.24, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch:138, Val_loss:  4.22, time: 21.54, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch:137, Val_loss:  5.82, time: 17.81, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch:136, Val_loss:  3.97, time: 19.56, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch:135, Val_loss:  6.75, time: 19.75, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch:134, Val_loss:  3.46, time: 25.33, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch:133, Val_loss:  7.35, time: 22.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch:132, Val_loss:  3.26, time: 20.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Epoch:131, Val_loss:  7.24, time: 21.98, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Epoch:130, Val_loss:  3.22, time: 29.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Epoch:129, Val_loss:  7.16, time: 24.70, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Epoch:128, Val_loss:  3.36, time: 19.74, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Epoch:127, Val_loss:  6.82, time: 25.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Epoch:126, Val_loss:  3.48, time: 20.34, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Epoch:125, Val_loss:  6.61, time: 23.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Epoch:124, Val_loss:  3.52, time: 26.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Epoch:123, Val_loss:  6.71, time: 22.36, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Epoch:122, Val_loss:  3.22, time: 28.09, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Epoch:121, Val_loss:  6.56, time: 22.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Epoch:120, Val_loss:  3.12, time: 31.96, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Epoch:119, Val_loss:  6.35, time: 27.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Epoch:118, Val_loss:  3.22, time: 18.42, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Epoch:117, Val_loss:  6.78, time: 19.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Epoch:116, Val_loss:  3.19, time: 20.63, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Epoch:115, Val_loss:  6.62, time: 17.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Epoch:114, Val_loss:  3.86, time: 19.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Epoch:113, Val_loss:  4.50, time: 21.44, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Epoch:112, Val_loss:  3.97, time: 19.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Epoch:111, Val_loss:  4.78, time: 22.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Epoch:110, Val_loss:  2.86, time: 27.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Epoch:109, Val_loss:  5.65, time: 16.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Epoch:108, Val_loss:  2.95, time: 20.62, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Epoch:107, Val_loss:  5.69, time: 16.80, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Epoch:106, Val_loss:  2.84, time: 15.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Epoch:105, Val_loss:  5.93, time: 22.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Epoch:104, Val_loss:  3.85, time: 29.94, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Epoch:103, Val_loss:  3.70, time: 25.79, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Epoch:102, Val_loss:  3.79, time: 26.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Epoch:101, Val_loss:  3.70, time: 24.12, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Epoch:100, Val_loss:  3.90, time: 22.50, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Epoch: 99, Val_loss:  3.63, time: 22.77, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Epoch: 98, Val_loss:  3.88, time: 18.65, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Epoch: 97, Val_loss:  3.63, time: 16.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Epoch: 96, Val_loss:  3.89, time: 23.19, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Epoch: 95, Val_loss:  3.64, time: 29.67, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Epoch: 94, Val_loss:  3.84, time: 31.43, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Epoch: 93, Val_loss:  3.68, time: 23.87, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Epoch: 92, Val_loss:  3.86, time: 27.36, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Epoch: 91, Val_loss:  3.62, time: 22.68, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Epoch: 90, Val_loss:  3.87, time: 22.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Epoch: 89, Val_loss:  3.63, time: 18.13, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Epoch: 88, Val_loss:  3.90, time: 23.50, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Epoch: 87, Val_loss:  3.65, time: 27.41, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Epoch: 86, Val_loss:  3.87, time: 23.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Epoch: 85, Val_loss:  3.64, time: 23.16, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Epoch: 84, Val_loss:  3.87, time: 19.30, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Epoch: 83, Val_loss:  3.65, time: 19.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Epoch: 82, Val_loss:  3.86, time: 24.09, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Epoch: 81, Val_loss:  3.65, time: 19.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Epoch: 80, Val_loss:  3.77, time: 25.27, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Epoch: 79, Val_loss:  3.69, time: 18.28, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Epoch: 78, Val_loss:  3.79, time: 23.51, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Epoch: 77, Val_loss:  3.72, time: 18.15, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Epoch: 76, Val_loss:  3.78, time: 27.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Epoch: 75, Val_loss:  3.74, time: 24.26, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Epoch: 74, Val_loss:  3.78, time: 24.80, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Epoch: 73, Val_loss:  3.66, time: 27.83, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Epoch: 72, Val_loss:  3.78, time: 21.08, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Epoch: 71, Val_loss:  3.64, time: 24.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Epoch: 70, Val_loss:  3.79, time: 21.91, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Epoch: 69, Val_loss:  3.59, time: 28.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch: 68, Val_loss:  3.71, time: 22.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Epoch: 67, Val_loss:  3.55, time: 21.88, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Epoch: 66, Val_loss:  3.68, time: 24.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Epoch: 65, Val_loss:  3.52, time: 27.97, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Epoch: 64, Val_loss:  3.70, time: 18.57, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Epoch: 63, Val_loss:  3.51, time: 22.94, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Epoch: 62, Val_loss:  3.72, time: 31.11, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Epoch: 61, Val_loss:  3.52, time: 32.21, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Epoch: 60, Val_loss:  3.74, time: 29.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Epoch: 59, Val_loss:  3.57, time: 30.66, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Epoch: 58, Val_loss:  3.72, time: 22.22, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Epoch: 57, Val_loss:  3.52, time: 30.93, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Epoch: 56, Val_loss:  3.67, time: 25.57, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Epoch: 55, Val_loss:  3.50, time: 22.05, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Epoch: 54, Val_loss:  3.63, time: 22.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Epoch: 53, Val_loss:  3.49, time: 24.58, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Epoch: 52, Val_loss:  3.62, time: 20.30, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Epoch: 51, Val_loss:  3.47, time: 20.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Epoch: 50, Val_loss:  3.57, time: 27.60, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Epoch: 49, Val_loss:  3.47, time: 27.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Epoch: 48, Val_loss:  3.53, time: 26.54, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Epoch: 47, Val_loss:  3.51, time: 18.95, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Epoch: 46, Val_loss:  3.51, time: 16.94, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Epoch: 45, Val_loss:  3.50, time: 20.44, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Epoch: 44, Val_loss:  3.45, time: 22.65, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Epoch: 43, Val_loss:  3.49, time: 22.53, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Epoch: 42, Val_loss:  3.51, time: 25.22, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Epoch: 41, Val_loss:  3.49, time: 26.41, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Epoch: 40, Val_loss:  3.58, time: 29.14, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Epoch: 39, Val_loss:  3.40, time: 25.86, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Epoch: 38, Val_loss:  3.53, time: 26.37, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Epoch: 37, Val_loss:  3.47, time: 19.15, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Epoch: 36, Val_loss:  3.53, time: 19.04, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Epoch: 35, Val_loss:  3.51, time: 24.95, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Epoch: 34, Val_loss:  3.57, time: 16.61, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Epoch: 33, Val_loss:  3.45, time: 20.63, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Epoch: 32, Val_loss:  3.50, time: 26.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Epoch: 31, Val_loss:  3.43, time: 28.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Epoch: 30, Val_loss:  3.55, time: 21.41, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Epoch: 29, Val_loss:  3.40, time: 31.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Epoch: 28, Val_loss:  3.49, time: 21.87, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Epoch: 27, Val_loss:  3.38, time: 22.71, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Epoch: 26, Val_loss:  3.50, time: 21.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Epoch: 25, Val_loss:  3.35, time: 27.01, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Epoch: 24, Val_loss:  3.48, time: 19.48, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Epoch: 23, Val_loss:  3.33, time: 25.35, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Epoch: 22, Val_loss:  3.38, time: 27.77, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Epoch: 21, Val_loss:  3.29, time: 28.73, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Epoch: 20, Val_loss:  3.32, time: 23.00, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Epoch: 19, Val_loss:  3.28, time: 21.34, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Epoch: 18, Val_loss:  3.28, time: 27.92, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Epoch: 17, Val_loss:  3.27, time: 23.87, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Epoch: 16, Val_loss:  3.22, time: 26.03, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Epoch: 15, Val_loss:  3.18, time: 21.72, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Epoch: 14, Val_loss:  3.13, time: 26.80, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Epoch: 13, Val_loss:  3.07, time: 21.25, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Epoch: 12, Val_loss:  3.10, time: 24.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Epoch: 11, Val_loss:  3.00, time: 21.56, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Epoch: 10, Val_loss:  3.01, time: 17.64, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Epoch:  9, Val_loss:  2.93, time: 19.23, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Epoch:  8, Val_loss:  2.92, time: 21.90, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Epoch:  7, Val_loss:  2.92, time: 21.06, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Epoch:  6, Val_loss:  2.93, time: 21.16, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Epoch:  5, Val_loss:  2.97, time: 36.39, test_Acc:  38.38, test_bacc:  34.71, test_f1:  26.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Epoch:  4, Val_loss:  3.03, time: 40.68, test_Acc:  37.50, test_bacc:  33.98, test_f1:  26.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Epoch:  3, Val_loss:  3.08, time: 31.00, test_Acc:  37.50, test_bacc:  33.98, test_f1:  26.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  3.19, time: 28.39, test_Acc:  37.72, test_bacc:  34.30, test_f1:  26.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  3.30, time: 43.28, test_Acc:  37.72, test_bacc:  34.30, test_f1:  26.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Epoch:  0, Val_loss:  3.45, time: 33.77, test_Acc:  37.72, test_bacc:  34.30, test_f1:  26.59</t>
         </is>
       </c>
     </row>
